--- a/drugs.xlsx
+++ b/drugs.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="182">
   <si>
     <t>序号</t>
   </si>
@@ -3782,7 +3782,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3819,24 +3819,24 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3852,9 +3852,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -3909,10 +3906,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4440,7 +4437,7 @@
   <sheetPr/>
   <dimension ref="A1:H123"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
       <selection activeCell="A1" sqref="A1:H123"/>
     </sheetView>
   </sheetViews>
@@ -4496,7 +4493,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" ht="15.75" spans="1:8">
+    <row r="3" ht="16.5" spans="1:8">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -4522,9 +4519,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3"/>
+    <row r="4" ht="16.5" spans="1:8">
+      <c r="A4" s="7">
+        <v>2</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>14</v>
+      </c>
       <c r="C4" s="4" t="s">
         <v>19</v>
       </c>
@@ -4544,9 +4545,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="2"/>
-      <c r="B5" s="3"/>
+    <row r="5" ht="16.5" spans="1:8">
+      <c r="A5" s="7">
+        <v>2</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>14</v>
+      </c>
       <c r="C5" s="4" t="s">
         <v>21</v>
       </c>
@@ -4566,9 +4571,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="2"/>
-      <c r="B6" s="3"/>
+    <row r="6" ht="16.5" spans="1:8">
+      <c r="A6" s="7">
+        <v>2</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>14</v>
+      </c>
       <c r="C6" s="4" t="s">
         <v>22</v>
       </c>
@@ -4588,9 +4597,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="2"/>
-      <c r="B7" s="3"/>
+    <row r="7" ht="16.5" spans="1:8">
+      <c r="A7" s="7">
+        <v>2</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>14</v>
+      </c>
       <c r="C7" s="4" t="s">
         <v>24</v>
       </c>
@@ -4610,25 +4623,29 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" ht="14.25" spans="1:8">
-      <c r="A8" s="12"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="14" t="s">
+    <row r="8" ht="16.5" spans="1:8">
+      <c r="A8" s="7">
+        <v>2</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="13">
         <v>1</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" s="12" t="s">
+      <c r="G8" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="15" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4636,7 +4653,7 @@
       <c r="A9" s="2">
         <v>3</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="16" t="s">
         <v>26</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -4658,9 +4675,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="2"/>
-      <c r="B10" s="3"/>
+    <row r="10" ht="15.75" spans="1:8">
+      <c r="A10" s="2">
+        <v>3</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>26</v>
+      </c>
       <c r="C10" s="4" t="s">
         <v>29</v>
       </c>
@@ -4680,9 +4701,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="2"/>
-      <c r="B11" s="3"/>
+    <row r="11" ht="15.75" spans="1:8">
+      <c r="A11" s="2">
+        <v>3</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>26</v>
+      </c>
       <c r="C11" s="4" t="s">
         <v>30</v>
       </c>
@@ -4702,9 +4727,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="2"/>
-      <c r="B12" s="3"/>
+    <row r="12" ht="15.75" spans="1:8">
+      <c r="A12" s="2">
+        <v>3</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>26</v>
+      </c>
       <c r="C12" s="4" t="s">
         <v>31</v>
       </c>
@@ -4724,77 +4753,81 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" ht="14.25" spans="1:8">
-      <c r="A13" s="12"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="14" t="s">
+    <row r="13" ht="16.5" spans="1:8">
+      <c r="A13" s="2">
+        <v>3</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="13">
         <v>1</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="F13" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="G13" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="H13" s="12" t="s">
+      <c r="G13" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="15" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="14" ht="16.5" spans="1:8">
-      <c r="A14" s="12">
+      <c r="A14" s="15">
         <v>4</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="15">
+      <c r="D14" s="13">
         <v>1</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E14" s="13">
         <v>1</v>
       </c>
-      <c r="F14" s="14" t="s">
+      <c r="F14" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="H14" s="12" t="s">
+      <c r="G14" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" s="15" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" ht="16.5" spans="1:8">
-      <c r="A15" s="12">
+      <c r="A15" s="15">
         <v>5</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="15">
+      <c r="D15" s="13">
         <v>1</v>
       </c>
-      <c r="E15" s="15">
+      <c r="E15" s="13">
         <v>1</v>
       </c>
-      <c r="F15" s="14" t="s">
+      <c r="F15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="G15" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="H15" s="12" t="s">
+      <c r="G15" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" s="15" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4802,7 +4835,7 @@
       <c r="A16" s="2">
         <v>6</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="16" t="s">
         <v>36</v>
       </c>
       <c r="C16" s="4" t="s">
@@ -4824,9 +4857,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="2"/>
-      <c r="B17" s="3"/>
+    <row r="17" ht="15.75" spans="1:8">
+      <c r="A17" s="2">
+        <v>6</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>36</v>
+      </c>
       <c r="C17" s="4" t="s">
         <v>38</v>
       </c>
@@ -4846,25 +4883,29 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" ht="14.25" spans="1:8">
-      <c r="A18" s="12"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="14" t="s">
+    <row r="18" ht="16.5" spans="1:8">
+      <c r="A18" s="2">
+        <v>6</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="D18" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="E18" s="15" t="s">
+      <c r="E18" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="F18" s="14" t="s">
+      <c r="F18" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="G18" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="12" t="s">
+      <c r="G18" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" s="15" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4872,7 +4913,7 @@
       <c r="A19" s="2">
         <v>7</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="16" t="s">
         <v>42</v>
       </c>
       <c r="C19" s="4" t="s">
@@ -4894,9 +4935,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="2"/>
-      <c r="B20" s="3"/>
+    <row r="20" ht="15.75" spans="1:8">
+      <c r="A20" s="2">
+        <v>7</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="C20" s="4" t="s">
         <v>34</v>
       </c>
@@ -4916,98 +4961,102 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" ht="14.25" spans="1:8">
-      <c r="A21" s="12"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="14" t="s">
+    <row r="21" ht="16.5" spans="1:8">
+      <c r="A21" s="2">
+        <v>7</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="D21" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="E21" s="15" t="s">
+      <c r="E21" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="F21" s="14" t="s">
+      <c r="F21" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="G21" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="H21" s="12" t="s">
+      <c r="G21" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H21" s="15" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="22" ht="16.5" spans="1:8">
-      <c r="A22" s="12">
+      <c r="A22" s="15">
         <v>8</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C22" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D22" s="15">
+      <c r="D22" s="13">
         <v>1</v>
       </c>
-      <c r="E22" s="15">
+      <c r="E22" s="13">
         <v>1</v>
       </c>
-      <c r="F22" s="14" t="s">
+      <c r="F22" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="G22" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="H22" s="12" t="s">
+      <c r="G22" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H22" s="15" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="23" ht="16.5" spans="1:8">
-      <c r="A23" s="12">
+      <c r="A23" s="15">
         <v>9</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C23" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="15">
+      <c r="D23" s="13">
         <v>1</v>
       </c>
-      <c r="E23" s="15">
+      <c r="E23" s="13">
         <v>1</v>
       </c>
-      <c r="F23" s="14" t="s">
+      <c r="F23" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="G23" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="H23" s="12" t="s">
+      <c r="G23" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H23" s="15" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="24" ht="14.25" spans="1:8">
-      <c r="A24" s="12">
+      <c r="A24" s="15">
         <v>10</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C24" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="D24" s="14"/>
-      <c r="E24" s="12" t="s">
+      <c r="D24" s="12"/>
+      <c r="E24" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="F24" s="14" t="s">
+      <c r="F24" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="G24" s="15" t="s">
+      <c r="G24" s="13" t="s">
         <v>51</v>
       </c>
       <c r="H24" s="18" t="s">
@@ -5015,25 +5064,25 @@
       </c>
     </row>
     <row r="25" ht="14.25" spans="1:8">
-      <c r="A25" s="12">
+      <c r="A25" s="15">
         <v>11</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="C25" s="14" t="s">
+      <c r="C25" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="D25" s="15" t="s">
+      <c r="D25" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="12" t="s">
+      <c r="E25" s="15" t="s">
         <v>11</v>
       </c>
       <c r="F25" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="G25" s="14" t="s">
+      <c r="G25" s="12" t="s">
         <v>55</v>
       </c>
       <c r="H25" s="18" t="s">
@@ -5065,8 +5114,12 @@
       </c>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="2"/>
-      <c r="B27" s="23"/>
+      <c r="A27" s="2">
+        <v>12</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>56</v>
+      </c>
       <c r="C27" s="21" t="s">
         <v>59</v>
       </c>
@@ -5087,8 +5140,12 @@
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="2"/>
-      <c r="B28" s="23"/>
+      <c r="A28" s="2">
+        <v>12</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>56</v>
+      </c>
       <c r="C28" s="4" t="s">
         <v>61</v>
       </c>
@@ -5109,8 +5166,12 @@
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="2"/>
-      <c r="B29" s="23"/>
+      <c r="A29" s="2">
+        <v>12</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>56</v>
+      </c>
       <c r="C29" s="21" t="s">
         <v>63</v>
       </c>
@@ -5131,9 +5192,13 @@
       </c>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="2"/>
-      <c r="B30" s="23"/>
-      <c r="C30" s="24" t="s">
+      <c r="A30" s="2">
+        <v>12</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" s="23" t="s">
         <v>67</v>
       </c>
       <c r="D30" s="5" t="s">
@@ -5142,10 +5207,10 @@
       <c r="E30" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F30" s="24" t="s">
+      <c r="F30" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="G30" s="24" t="s">
+      <c r="G30" s="23" t="s">
         <v>58</v>
       </c>
       <c r="H30" s="22" t="s">
@@ -5153,8 +5218,12 @@
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="2"/>
-      <c r="B31" s="23"/>
+      <c r="A31" s="2">
+        <v>12</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>56</v>
+      </c>
       <c r="C31" s="4" t="s">
         <v>68</v>
       </c>
@@ -5175,8 +5244,12 @@
       </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="2"/>
-      <c r="B32" s="23"/>
+      <c r="A32" s="2">
+        <v>12</v>
+      </c>
+      <c r="B32" s="20" t="s">
+        <v>56</v>
+      </c>
       <c r="C32" s="21" t="s">
         <v>69</v>
       </c>
@@ -5197,8 +5270,12 @@
       </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="2"/>
-      <c r="B33" s="23"/>
+      <c r="A33" s="2">
+        <v>12</v>
+      </c>
+      <c r="B33" s="20" t="s">
+        <v>56</v>
+      </c>
       <c r="C33" s="21" t="s">
         <v>71</v>
       </c>
@@ -5208,10 +5285,10 @@
       <c r="E33" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F33" s="24" t="s">
+      <c r="F33" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="G33" s="24" t="s">
+      <c r="G33" s="23" t="s">
         <v>65</v>
       </c>
       <c r="H33" s="22" t="s">
@@ -5219,8 +5296,12 @@
       </c>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="2"/>
-      <c r="B34" s="23"/>
+      <c r="A34" s="2">
+        <v>12</v>
+      </c>
+      <c r="B34" s="20" t="s">
+        <v>56</v>
+      </c>
       <c r="C34" s="4" t="s">
         <v>72</v>
       </c>
@@ -5230,10 +5311,10 @@
       <c r="E34" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F34" s="24" t="s">
+      <c r="F34" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="G34" s="24" t="s">
+      <c r="G34" s="23" t="s">
         <v>65</v>
       </c>
       <c r="H34" s="22" t="s">
@@ -5241,8 +5322,12 @@
       </c>
     </row>
     <row r="35" ht="14.25" spans="1:8">
-      <c r="A35" s="2"/>
-      <c r="B35" s="23"/>
+      <c r="A35" s="2">
+        <v>12</v>
+      </c>
+      <c r="B35" s="20" t="s">
+        <v>56</v>
+      </c>
       <c r="C35" s="4" t="s">
         <v>73</v>
       </c>
@@ -5252,10 +5337,10 @@
       <c r="E35" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F35" s="24" t="s">
+      <c r="F35" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="G35" s="24" t="s">
+      <c r="G35" s="23" t="s">
         <v>74</v>
       </c>
       <c r="H35" s="22" t="s">
@@ -5266,7 +5351,7 @@
       <c r="A36" s="7">
         <v>13</v>
       </c>
-      <c r="B36" s="25" t="s">
+      <c r="B36" s="24" t="s">
         <v>75</v>
       </c>
       <c r="C36" s="9" t="s">
@@ -5295,7 +5380,7 @@
       <c r="B37" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="C37" s="24" t="s">
+      <c r="C37" s="23" t="s">
         <v>77</v>
       </c>
       <c r="D37" s="5" t="s">
@@ -5304,10 +5389,10 @@
       <c r="E37" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F37" s="24" t="s">
+      <c r="F37" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="G37" s="24" t="s">
+      <c r="G37" s="23" t="s">
         <v>78</v>
       </c>
       <c r="H37" s="22" t="s">
@@ -5315,9 +5400,13 @@
       </c>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="2"/>
-      <c r="B38" s="23"/>
-      <c r="C38" s="24" t="s">
+      <c r="A38" s="2">
+        <v>14</v>
+      </c>
+      <c r="B38" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="C38" s="23" t="s">
         <v>79</v>
       </c>
       <c r="D38" s="5" t="s">
@@ -5326,10 +5415,10 @@
       <c r="E38" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F38" s="24" t="s">
+      <c r="F38" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="G38" s="24" t="s">
+      <c r="G38" s="23" t="s">
         <v>78</v>
       </c>
       <c r="H38" s="22" t="s">
@@ -5337,9 +5426,13 @@
       </c>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="2"/>
-      <c r="B39" s="23"/>
-      <c r="C39" s="24" t="s">
+      <c r="A39" s="2">
+        <v>14</v>
+      </c>
+      <c r="B39" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="C39" s="23" t="s">
         <v>80</v>
       </c>
       <c r="D39" s="5" t="s">
@@ -5348,7 +5441,7 @@
       <c r="E39" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F39" s="24"/>
+      <c r="F39" s="23"/>
       <c r="G39" s="4" t="s">
         <v>12</v>
       </c>
@@ -5357,16 +5450,20 @@
       </c>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="2"/>
-      <c r="B40" s="23"/>
-      <c r="C40" s="24" t="s">
+      <c r="A40" s="2">
+        <v>14</v>
+      </c>
+      <c r="B40" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="C40" s="23" t="s">
         <v>81</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E40" s="2"/>
-      <c r="F40" s="24" t="s">
+      <c r="F40" s="23" t="s">
         <v>54</v>
       </c>
       <c r="G40" s="4" t="s">
@@ -5377,9 +5474,13 @@
       </c>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="2"/>
-      <c r="B41" s="23"/>
-      <c r="C41" s="24" t="s">
+      <c r="A41" s="2">
+        <v>14</v>
+      </c>
+      <c r="B41" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="C41" s="23" t="s">
         <v>83</v>
       </c>
       <c r="D41" s="5" t="s">
@@ -5388,8 +5489,8 @@
       <c r="E41" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F41" s="26"/>
-      <c r="G41" s="24" t="s">
+      <c r="F41" s="25"/>
+      <c r="G41" s="23" t="s">
         <v>78</v>
       </c>
       <c r="H41" s="22" t="s">
@@ -5397,9 +5498,13 @@
       </c>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="2"/>
-      <c r="B42" s="23"/>
-      <c r="C42" s="24" t="s">
+      <c r="A42" s="2">
+        <v>14</v>
+      </c>
+      <c r="B42" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="C42" s="23" t="s">
         <v>84</v>
       </c>
       <c r="D42" s="5" t="s">
@@ -5408,8 +5513,8 @@
       <c r="E42" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F42" s="26"/>
-      <c r="G42" s="24" t="s">
+      <c r="F42" s="25"/>
+      <c r="G42" s="23" t="s">
         <v>78</v>
       </c>
       <c r="H42" s="22" t="s">
@@ -5417,9 +5522,13 @@
       </c>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="2"/>
-      <c r="B43" s="23"/>
-      <c r="C43" s="24" t="s">
+      <c r="A43" s="2">
+        <v>14</v>
+      </c>
+      <c r="B43" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="C43" s="23" t="s">
         <v>85</v>
       </c>
       <c r="D43" s="5" t="s">
@@ -5428,10 +5537,10 @@
       <c r="E43" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F43" s="24" t="s">
+      <c r="F43" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="G43" s="24" t="s">
+      <c r="G43" s="23" t="s">
         <v>78</v>
       </c>
       <c r="H43" s="22" t="s">
@@ -5439,9 +5548,13 @@
       </c>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="2"/>
-      <c r="B44" s="23"/>
-      <c r="C44" s="27" t="s">
+      <c r="A44" s="2">
+        <v>14</v>
+      </c>
+      <c r="B44" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="C44" s="26" t="s">
         <v>86</v>
       </c>
       <c r="D44" s="5" t="s">
@@ -5450,7 +5563,7 @@
       <c r="E44" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F44" s="24" t="s">
+      <c r="F44" s="23" t="s">
         <v>54</v>
       </c>
       <c r="G44" s="4" t="s">
@@ -5461,9 +5574,13 @@
       </c>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="2"/>
-      <c r="B45" s="23"/>
-      <c r="C45" s="24" t="s">
+      <c r="A45" s="2">
+        <v>14</v>
+      </c>
+      <c r="B45" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="C45" s="23" t="s">
         <v>87</v>
       </c>
       <c r="D45" s="5" t="s">
@@ -5472,10 +5589,10 @@
       <c r="E45" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F45" s="24" t="s">
+      <c r="F45" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="G45" s="24" t="s">
+      <c r="G45" s="23" t="s">
         <v>78</v>
       </c>
       <c r="H45" s="22" t="s">
@@ -5483,9 +5600,13 @@
       </c>
     </row>
     <row r="46" ht="14.25" spans="1:8">
-      <c r="A46" s="2"/>
-      <c r="B46" s="23"/>
-      <c r="C46" s="24" t="s">
+      <c r="A46" s="2">
+        <v>14</v>
+      </c>
+      <c r="B46" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="C46" s="23" t="s">
         <v>88</v>
       </c>
       <c r="D46" s="5" t="s">
@@ -5495,21 +5616,21 @@
         <v>11</v>
       </c>
       <c r="F46" s="5"/>
-      <c r="G46" s="24" t="s">
+      <c r="G46" s="23" t="s">
         <v>78</v>
       </c>
       <c r="H46" s="22" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" ht="14.25" spans="1:8">
       <c r="A47" s="7">
         <v>15</v>
       </c>
-      <c r="B47" s="28" t="s">
+      <c r="B47" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="C47" s="29" t="s">
+      <c r="C47" s="28" t="s">
         <v>90</v>
       </c>
       <c r="D47" s="10" t="s">
@@ -5518,20 +5639,24 @@
       <c r="E47" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F47" s="29" t="s">
+      <c r="F47" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="G47" s="29" t="s">
+      <c r="G47" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="H47" s="30" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48" s="2"/>
-      <c r="B48" s="23"/>
-      <c r="C48" s="27" t="s">
+      <c r="H47" s="29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" ht="14.25" spans="1:8">
+      <c r="A48" s="7">
+        <v>15</v>
+      </c>
+      <c r="B48" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="C48" s="26" t="s">
         <v>91</v>
       </c>
       <c r="D48" s="5" t="s">
@@ -5540,7 +5665,7 @@
       <c r="E48" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F48" s="24" t="s">
+      <c r="F48" s="23" t="s">
         <v>54</v>
       </c>
       <c r="G48" s="4" t="s">
@@ -5550,9 +5675,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
-      <c r="A49" s="2"/>
-      <c r="B49" s="23"/>
+    <row r="49" ht="14.25" spans="1:8">
+      <c r="A49" s="7">
+        <v>15</v>
+      </c>
+      <c r="B49" s="27" t="s">
+        <v>89</v>
+      </c>
       <c r="C49" s="4" t="s">
         <v>93</v>
       </c>
@@ -5562,20 +5691,24 @@
       <c r="E49" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F49" s="24" t="s">
+      <c r="F49" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="G49" s="24" t="s">
+      <c r="G49" s="23" t="s">
         <v>58</v>
       </c>
       <c r="H49" s="22" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
-      <c r="A50" s="2"/>
-      <c r="B50" s="23"/>
-      <c r="C50" s="24" t="s">
+    <row r="50" ht="14.25" spans="1:8">
+      <c r="A50" s="7">
+        <v>15</v>
+      </c>
+      <c r="B50" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="C50" s="23" t="s">
         <v>94</v>
       </c>
       <c r="D50" s="5" t="s">
@@ -5584,7 +5717,7 @@
       <c r="E50" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F50" s="24" t="s">
+      <c r="F50" s="23" t="s">
         <v>54</v>
       </c>
       <c r="G50" s="4" t="s">
@@ -5594,10 +5727,14 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
-      <c r="A51" s="2"/>
-      <c r="B51" s="23"/>
-      <c r="C51" s="24" t="s">
+    <row r="51" ht="14.25" spans="1:8">
+      <c r="A51" s="7">
+        <v>15</v>
+      </c>
+      <c r="B51" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="C51" s="23" t="s">
         <v>96</v>
       </c>
       <c r="D51" s="5" t="s">
@@ -5606,20 +5743,24 @@
       <c r="E51" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F51" s="24" t="s">
+      <c r="F51" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="G51" s="24" t="s">
+      <c r="G51" s="23" t="s">
         <v>58</v>
       </c>
       <c r="H51" s="22" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
-      <c r="A52" s="2"/>
-      <c r="B52" s="23"/>
-      <c r="C52" s="24" t="s">
+    <row r="52" ht="14.25" spans="1:8">
+      <c r="A52" s="7">
+        <v>15</v>
+      </c>
+      <c r="B52" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="C52" s="23" t="s">
         <v>67</v>
       </c>
       <c r="D52" s="5" t="s">
@@ -5628,20 +5769,24 @@
       <c r="E52" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F52" s="24" t="s">
+      <c r="F52" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="G52" s="24" t="s">
+      <c r="G52" s="23" t="s">
         <v>58</v>
       </c>
       <c r="H52" s="22" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
-      <c r="A53" s="2"/>
-      <c r="B53" s="23"/>
-      <c r="C53" s="24" t="s">
+    <row r="53" ht="14.25" spans="1:8">
+      <c r="A53" s="7">
+        <v>15</v>
+      </c>
+      <c r="B53" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="C53" s="23" t="s">
         <v>97</v>
       </c>
       <c r="D53" s="5" t="s">
@@ -5650,7 +5795,7 @@
       <c r="E53" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F53" s="24" t="s">
+      <c r="F53" s="23" t="s">
         <v>54</v>
       </c>
       <c r="G53" s="4" t="s">
@@ -5660,10 +5805,14 @@
         <v>66</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
-      <c r="A54" s="2"/>
-      <c r="B54" s="23"/>
-      <c r="C54" s="24" t="s">
+    <row r="54" ht="14.25" spans="1:8">
+      <c r="A54" s="7">
+        <v>15</v>
+      </c>
+      <c r="B54" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="C54" s="23" t="s">
         <v>98</v>
       </c>
       <c r="D54" s="5" t="s">
@@ -5672,20 +5821,24 @@
       <c r="E54" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F54" s="24" t="s">
+      <c r="F54" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="G54" s="24" t="s">
+      <c r="G54" s="23" t="s">
         <v>58</v>
       </c>
       <c r="H54" s="22" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
-      <c r="A55" s="2"/>
-      <c r="B55" s="23"/>
-      <c r="C55" s="24" t="s">
+    <row r="55" ht="14.25" spans="1:8">
+      <c r="A55" s="7">
+        <v>15</v>
+      </c>
+      <c r="B55" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="C55" s="23" t="s">
         <v>99</v>
       </c>
       <c r="D55" s="5" t="s">
@@ -5694,20 +5847,24 @@
       <c r="E55" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F55" s="24" t="s">
+      <c r="F55" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="G55" s="24" t="s">
+      <c r="G55" s="23" t="s">
         <v>58</v>
       </c>
       <c r="H55" s="22" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
-      <c r="A56" s="2"/>
-      <c r="B56" s="23"/>
-      <c r="C56" s="24" t="s">
+    <row r="56" ht="14.25" spans="1:8">
+      <c r="A56" s="7">
+        <v>15</v>
+      </c>
+      <c r="B56" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="C56" s="23" t="s">
         <v>100</v>
       </c>
       <c r="D56" s="5" t="s">
@@ -5716,20 +5873,24 @@
       <c r="E56" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F56" s="24" t="s">
+      <c r="F56" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="G56" s="24" t="s">
+      <c r="G56" s="23" t="s">
         <v>101</v>
       </c>
       <c r="H56" s="22" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
-      <c r="A57" s="2"/>
-      <c r="B57" s="23"/>
-      <c r="C57" s="24" t="s">
+    <row r="57" ht="14.25" spans="1:8">
+      <c r="A57" s="7">
+        <v>15</v>
+      </c>
+      <c r="B57" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="C57" s="23" t="s">
         <v>102</v>
       </c>
       <c r="D57" s="5" t="s">
@@ -5748,10 +5909,14 @@
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
-      <c r="A58" s="2"/>
-      <c r="B58" s="23"/>
-      <c r="C58" s="24" t="s">
+    <row r="58" ht="14.25" spans="1:8">
+      <c r="A58" s="7">
+        <v>15</v>
+      </c>
+      <c r="B58" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="C58" s="23" t="s">
         <v>103</v>
       </c>
       <c r="D58" s="5" t="s">
@@ -5760,7 +5925,7 @@
       <c r="E58" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F58" s="24" t="s">
+      <c r="F58" s="23" t="s">
         <v>54</v>
       </c>
       <c r="G58" s="4" t="s">
@@ -5770,10 +5935,14 @@
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
-      <c r="A59" s="2"/>
-      <c r="B59" s="23"/>
-      <c r="C59" s="24" t="s">
+    <row r="59" ht="14.25" spans="1:8">
+      <c r="A59" s="7">
+        <v>15</v>
+      </c>
+      <c r="B59" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="C59" s="23" t="s">
         <v>104</v>
       </c>
       <c r="D59" s="5" t="s">
@@ -5782,7 +5951,7 @@
       <c r="E59" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F59" s="24" t="s">
+      <c r="F59" s="23" t="s">
         <v>54</v>
       </c>
       <c r="G59" s="4" t="s">
@@ -5792,10 +5961,14 @@
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
-      <c r="A60" s="2"/>
-      <c r="B60" s="23"/>
-      <c r="C60" s="24" t="s">
+    <row r="60" ht="14.25" spans="1:8">
+      <c r="A60" s="7">
+        <v>15</v>
+      </c>
+      <c r="B60" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="C60" s="23" t="s">
         <v>105</v>
       </c>
       <c r="D60" s="5" t="s">
@@ -5804,10 +5977,10 @@
       <c r="E60" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F60" s="24" t="s">
+      <c r="F60" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="G60" s="24" t="s">
+      <c r="G60" s="23" t="s">
         <v>58</v>
       </c>
       <c r="H60" s="22" t="s">
@@ -5815,9 +5988,13 @@
       </c>
     </row>
     <row r="61" ht="14.25" spans="1:8">
-      <c r="A61" s="2"/>
-      <c r="B61" s="23"/>
-      <c r="C61" s="24" t="s">
+      <c r="A61" s="7">
+        <v>15</v>
+      </c>
+      <c r="B61" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="C61" s="23" t="s">
         <v>106</v>
       </c>
       <c r="D61" s="5" t="s">
@@ -5826,7 +6003,7 @@
       <c r="E61" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F61" s="26"/>
+      <c r="F61" s="25"/>
       <c r="G61" s="4" t="s">
         <v>101</v>
       </c>
@@ -5835,46 +6012,46 @@
       </c>
     </row>
     <row r="62" ht="14.25" spans="1:8">
-      <c r="A62" s="31">
+      <c r="A62" s="30">
         <v>16</v>
       </c>
-      <c r="B62" s="32" t="s">
+      <c r="B62" s="31" t="s">
         <v>107</v>
       </c>
-      <c r="C62" s="33" t="s">
+      <c r="C62" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="D62" s="34" t="s">
+      <c r="D62" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="E62" s="31" t="s">
+      <c r="E62" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="F62" s="35"/>
-      <c r="G62" s="36" t="s">
+      <c r="F62" s="34"/>
+      <c r="G62" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="H62" s="37" t="s">
+      <c r="H62" s="36" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="63" ht="14.25" spans="1:8">
-      <c r="A63" s="12">
+      <c r="A63" s="15">
         <v>17</v>
       </c>
-      <c r="B63" s="38" t="s">
+      <c r="B63" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="C63" s="39" t="s">
+      <c r="C63" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="D63" s="15" t="s">
+      <c r="D63" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E63" s="12" t="s">
+      <c r="E63" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="F63" s="40"/>
+      <c r="F63" s="39"/>
       <c r="G63" s="19" t="s">
         <v>112</v>
       </c>
@@ -5886,7 +6063,7 @@
       <c r="A64" s="2">
         <v>18</v>
       </c>
-      <c r="B64" s="17" t="s">
+      <c r="B64" s="16" t="s">
         <v>113</v>
       </c>
       <c r="C64" s="4" t="s">
@@ -5908,9 +6085,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
-      <c r="A65" s="2"/>
-      <c r="B65" s="3"/>
+    <row r="65" ht="15.75" spans="1:8">
+      <c r="A65" s="2">
+        <v>18</v>
+      </c>
+      <c r="B65" s="16" t="s">
+        <v>113</v>
+      </c>
       <c r="C65" s="4" t="s">
         <v>115</v>
       </c>
@@ -5930,9 +6111,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
-      <c r="A66" s="2"/>
-      <c r="B66" s="3"/>
+    <row r="66" ht="15.75" spans="1:8">
+      <c r="A66" s="2">
+        <v>18</v>
+      </c>
+      <c r="B66" s="16" t="s">
+        <v>113</v>
+      </c>
       <c r="C66" s="4" t="s">
         <v>116</v>
       </c>
@@ -5952,9 +6137,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
-      <c r="A67" s="2"/>
-      <c r="B67" s="3"/>
+    <row r="67" ht="15.75" spans="1:8">
+      <c r="A67" s="2">
+        <v>18</v>
+      </c>
+      <c r="B67" s="16" t="s">
+        <v>113</v>
+      </c>
       <c r="C67" s="4" t="s">
         <v>117</v>
       </c>
@@ -5972,9 +6161,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
-      <c r="A68" s="2"/>
-      <c r="B68" s="3"/>
+    <row r="68" ht="15.75" spans="1:8">
+      <c r="A68" s="2">
+        <v>18</v>
+      </c>
+      <c r="B68" s="16" t="s">
+        <v>113</v>
+      </c>
       <c r="C68" s="4" t="s">
         <v>118</v>
       </c>
@@ -5994,9 +6187,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
-      <c r="A69" s="2"/>
-      <c r="B69" s="3"/>
+    <row r="69" ht="15.75" spans="1:8">
+      <c r="A69" s="2">
+        <v>18</v>
+      </c>
+      <c r="B69" s="16" t="s">
+        <v>113</v>
+      </c>
       <c r="C69" s="4" t="s">
         <v>119</v>
       </c>
@@ -6016,25 +6213,29 @@
         <v>13</v>
       </c>
     </row>
-    <row r="70" ht="14.25" spans="1:8">
-      <c r="A70" s="12"/>
-      <c r="B70" s="13"/>
-      <c r="C70" s="14" t="s">
+    <row r="70" ht="16.5" spans="1:8">
+      <c r="A70" s="2">
+        <v>18</v>
+      </c>
+      <c r="B70" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="C70" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="D70" s="15" t="s">
+      <c r="D70" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="E70" s="15">
+      <c r="E70" s="13">
         <v>1</v>
       </c>
-      <c r="F70" s="14" t="s">
+      <c r="F70" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="G70" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="H70" s="12" t="s">
+      <c r="G70" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H70" s="15" t="s">
         <v>13</v>
       </c>
     </row>
@@ -6042,7 +6243,7 @@
       <c r="A71" s="2">
         <v>19</v>
       </c>
-      <c r="B71" s="17" t="s">
+      <c r="B71" s="16" t="s">
         <v>121</v>
       </c>
       <c r="C71" s="4" t="s">
@@ -6065,74 +6266,74 @@
       </c>
     </row>
     <row r="72" ht="14.25" spans="1:8">
-      <c r="A72" s="12"/>
-      <c r="B72" s="13"/>
-      <c r="C72" s="14" t="s">
+      <c r="A72" s="15"/>
+      <c r="B72" s="17"/>
+      <c r="C72" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="D72" s="15" t="s">
+      <c r="D72" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="E72" s="15" t="s">
+      <c r="E72" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="F72" s="14" t="s">
+      <c r="F72" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="G72" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="H72" s="12" t="s">
+      <c r="G72" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H72" s="15" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="73" ht="16.5" spans="1:8">
-      <c r="A73" s="12">
+      <c r="A73" s="15">
         <v>20</v>
       </c>
-      <c r="B73" s="13" t="s">
+      <c r="B73" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="C73" s="14" t="s">
+      <c r="C73" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D73" s="15">
+      <c r="D73" s="13">
         <v>1</v>
       </c>
-      <c r="E73" s="15">
+      <c r="E73" s="13">
         <v>1</v>
       </c>
-      <c r="F73" s="14" t="s">
+      <c r="F73" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="G73" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="H73" s="12" t="s">
+      <c r="G73" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H73" s="15" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="74" ht="16.5" spans="1:8">
-      <c r="A74" s="12">
+      <c r="A74" s="15">
         <v>21</v>
       </c>
-      <c r="B74" s="13" t="s">
+      <c r="B74" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="C74" s="14" t="s">
+      <c r="C74" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="D74" s="15" t="s">
+      <c r="D74" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E74" s="15">
+      <c r="E74" s="13">
         <v>2</v>
       </c>
-      <c r="F74" s="15"/>
-      <c r="G74" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="H74" s="12" t="s">
+      <c r="F74" s="13"/>
+      <c r="G74" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H74" s="15" t="s">
         <v>13</v>
       </c>
     </row>
@@ -6162,9 +6363,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="76" spans="1:8">
-      <c r="A76" s="2"/>
-      <c r="B76" s="3"/>
+    <row r="76" ht="15.75" spans="1:8">
+      <c r="A76" s="2">
+        <v>22</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>127</v>
+      </c>
       <c r="C76" s="4" t="s">
         <v>129</v>
       </c>
@@ -6184,129 +6389,133 @@
         <v>13</v>
       </c>
     </row>
-    <row r="77" ht="14.25" spans="1:8">
-      <c r="A77" s="12"/>
-      <c r="B77" s="13"/>
-      <c r="C77" s="14" t="s">
+    <row r="77" ht="16.5" spans="1:8">
+      <c r="A77" s="2">
+        <v>22</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C77" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="D77" s="15" t="s">
+      <c r="D77" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E77" s="15">
+      <c r="E77" s="13">
         <v>1</v>
       </c>
-      <c r="F77" s="14" t="s">
+      <c r="F77" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="G77" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="H77" s="12" t="s">
+      <c r="G77" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H77" s="15" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="78" ht="16.5" spans="1:8">
-      <c r="A78" s="12">
+      <c r="A78" s="15">
         <v>23</v>
       </c>
-      <c r="B78" s="13" t="s">
+      <c r="B78" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="C78" s="14" t="s">
+      <c r="C78" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="D78" s="15" t="s">
+      <c r="D78" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="15">
+      <c r="E78" s="13">
         <v>1</v>
       </c>
-      <c r="F78" s="14" t="s">
+      <c r="F78" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="G78" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="H78" s="12" t="s">
+      <c r="G78" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H78" s="15" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="79" ht="16.5" spans="1:8">
-      <c r="A79" s="12">
+      <c r="A79" s="15">
         <v>24</v>
       </c>
-      <c r="B79" s="13" t="s">
+      <c r="B79" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="C79" s="14" t="s">
+      <c r="C79" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="D79" s="15">
+      <c r="D79" s="13">
         <v>1</v>
       </c>
-      <c r="E79" s="15">
+      <c r="E79" s="13">
         <v>1</v>
       </c>
-      <c r="F79" s="14" t="s">
+      <c r="F79" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="G79" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="H79" s="12" t="s">
+      <c r="G79" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H79" s="15" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="80" ht="16.5" spans="1:8">
-      <c r="A80" s="12">
+      <c r="A80" s="15">
         <v>25</v>
       </c>
-      <c r="B80" s="41" t="s">
+      <c r="B80" s="40" t="s">
         <v>133</v>
       </c>
-      <c r="C80" s="14" t="s">
+      <c r="C80" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="D80" s="15" t="s">
+      <c r="D80" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E80" s="15">
+      <c r="E80" s="13">
         <v>1</v>
       </c>
-      <c r="F80" s="14" t="s">
+      <c r="F80" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="G80" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="H80" s="12" t="s">
+      <c r="G80" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H80" s="15" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="81" ht="16.5" spans="1:8">
-      <c r="A81" s="12">
+      <c r="A81" s="15">
         <v>26</v>
       </c>
-      <c r="B81" s="13" t="s">
+      <c r="B81" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="C81" s="14" t="s">
+      <c r="C81" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="D81" s="15" t="s">
+      <c r="D81" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E81" s="15">
+      <c r="E81" s="13">
         <v>1</v>
       </c>
-      <c r="F81" s="14" t="s">
+      <c r="F81" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="G81" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="H81" s="12" t="s">
+      <c r="G81" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H81" s="15" t="s">
         <v>13</v>
       </c>
     </row>
@@ -6326,7 +6535,7 @@
       <c r="E82" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F82" s="26"/>
+      <c r="F82" s="25"/>
       <c r="G82" s="4" t="s">
         <v>55</v>
       </c>
@@ -6335,21 +6544,25 @@
       </c>
     </row>
     <row r="83" ht="14.25" spans="1:8">
-      <c r="A83" s="12"/>
-      <c r="B83" s="42"/>
-      <c r="C83" s="43" t="s">
+      <c r="A83" s="2">
+        <v>27</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C83" s="41" t="s">
         <v>139</v>
       </c>
       <c r="D83" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="E83" s="12" t="s">
+      <c r="E83" s="15" t="s">
         <v>11</v>
       </c>
       <c r="F83" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="G83" s="14" t="s">
+      <c r="G83" s="12" t="s">
         <v>55</v>
       </c>
       <c r="H83" s="18" t="s">
@@ -6382,9 +6595,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="85" spans="1:8">
-      <c r="A85" s="2"/>
-      <c r="B85" s="3"/>
+    <row r="85" ht="15.75" spans="1:8">
+      <c r="A85" s="2">
+        <v>28</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>140</v>
+      </c>
       <c r="C85" s="4" t="s">
         <v>22</v>
       </c>
@@ -6404,9 +6621,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="86" spans="1:8">
-      <c r="A86" s="2"/>
-      <c r="B86" s="3"/>
+    <row r="86" ht="15.75" spans="1:8">
+      <c r="A86" s="2">
+        <v>28</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>140</v>
+      </c>
       <c r="C86" s="4" t="s">
         <v>142</v>
       </c>
@@ -6426,9 +6647,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="87" spans="1:8">
-      <c r="A87" s="2"/>
-      <c r="B87" s="3"/>
+    <row r="87" ht="15.75" spans="1:8">
+      <c r="A87" s="2">
+        <v>28</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>140</v>
+      </c>
       <c r="C87" s="4" t="s">
         <v>143</v>
       </c>
@@ -6448,9 +6673,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="88" spans="1:8">
-      <c r="A88" s="2"/>
-      <c r="B88" s="3"/>
+    <row r="88" ht="15.75" spans="1:8">
+      <c r="A88" s="2">
+        <v>28</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>140</v>
+      </c>
       <c r="C88" s="4" t="s">
         <v>144</v>
       </c>
@@ -6468,51 +6697,55 @@
         <v>13</v>
       </c>
     </row>
-    <row r="89" ht="14.25" spans="1:8">
-      <c r="A89" s="12"/>
-      <c r="B89" s="13"/>
-      <c r="C89" s="14" t="s">
+    <row r="89" ht="16.5" spans="1:8">
+      <c r="A89" s="2">
+        <v>28</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C89" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="D89" s="15">
+      <c r="D89" s="13">
         <v>1</v>
       </c>
-      <c r="E89" s="15">
+      <c r="E89" s="13">
         <v>1</v>
       </c>
-      <c r="F89" s="14" t="s">
+      <c r="F89" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="G89" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="H89" s="12" t="s">
+      <c r="G89" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H89" s="15" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="90" ht="16.5" spans="1:8">
-      <c r="A90" s="12">
+      <c r="A90" s="15">
         <v>29</v>
       </c>
-      <c r="B90" s="41" t="s">
+      <c r="B90" s="40" t="s">
         <v>146</v>
       </c>
-      <c r="C90" s="14" t="s">
+      <c r="C90" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="D90" s="15" t="s">
+      <c r="D90" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E90" s="15">
+      <c r="E90" s="13">
         <v>1</v>
       </c>
-      <c r="F90" s="14" t="s">
+      <c r="F90" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="G90" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="H90" s="12" t="s">
+      <c r="G90" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H90" s="15" t="s">
         <v>13</v>
       </c>
     </row>
@@ -6520,7 +6753,7 @@
       <c r="A91" s="2">
         <v>30</v>
       </c>
-      <c r="B91" s="17" t="s">
+      <c r="B91" s="16" t="s">
         <v>148</v>
       </c>
       <c r="C91" s="4" t="s">
@@ -6542,9 +6775,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="92" spans="1:8">
-      <c r="A92" s="2"/>
-      <c r="B92" s="3"/>
+    <row r="92" ht="15.75" spans="1:8">
+      <c r="A92" s="2">
+        <v>30</v>
+      </c>
+      <c r="B92" s="16" t="s">
+        <v>148</v>
+      </c>
       <c r="C92" s="4" t="s">
         <v>31</v>
       </c>
@@ -6564,74 +6801,78 @@
         <v>13</v>
       </c>
     </row>
-    <row r="93" ht="14.25" spans="1:8">
-      <c r="A93" s="12"/>
-      <c r="B93" s="13"/>
-      <c r="C93" s="14" t="s">
+    <row r="93" ht="16.5" spans="1:8">
+      <c r="A93" s="2">
+        <v>30</v>
+      </c>
+      <c r="B93" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="C93" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="D93" s="15" t="s">
+      <c r="D93" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E93" s="15" t="s">
+      <c r="E93" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="F93" s="14" t="s">
+      <c r="F93" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="G93" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="H93" s="12" t="s">
+      <c r="G93" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H93" s="15" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="94" ht="16.5" spans="1:8">
-      <c r="A94" s="12">
+      <c r="A94" s="15">
         <v>31</v>
       </c>
-      <c r="B94" s="13" t="s">
+      <c r="B94" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="C94" s="14" t="s">
+      <c r="C94" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="D94" s="15" t="s">
+      <c r="D94" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E94" s="15">
+      <c r="E94" s="13">
         <v>1</v>
       </c>
-      <c r="F94" s="14" t="s">
+      <c r="F94" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="G94" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="H94" s="12" t="s">
+      <c r="G94" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H94" s="15" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="95" ht="14.25" spans="1:8">
-      <c r="A95" s="12">
+      <c r="A95" s="15">
         <v>32</v>
       </c>
-      <c r="B95" s="38" t="s">
+      <c r="B95" s="37" t="s">
         <v>153</v>
       </c>
-      <c r="C95" s="39" t="s">
+      <c r="C95" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="D95" s="15" t="s">
+      <c r="D95" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E95" s="12" t="s">
+      <c r="E95" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="F95" s="14" t="s">
+      <c r="F95" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="G95" s="14" t="s">
+      <c r="G95" s="12" t="s">
         <v>18</v>
       </c>
       <c r="H95" s="18" t="s">
@@ -6664,25 +6905,29 @@
         <v>13</v>
       </c>
     </row>
-    <row r="97" ht="14.25" spans="1:8">
-      <c r="A97" s="12"/>
-      <c r="B97" s="13"/>
-      <c r="C97" s="14" t="s">
+    <row r="97" ht="16.5" spans="1:8">
+      <c r="A97" s="2">
+        <v>33</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C97" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="D97" s="15" t="s">
+      <c r="D97" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E97" s="15">
+      <c r="E97" s="13">
         <v>1</v>
       </c>
-      <c r="F97" s="14" t="s">
+      <c r="F97" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="G97" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="H97" s="12" t="s">
+      <c r="G97" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H97" s="15" t="s">
         <v>13</v>
       </c>
     </row>
@@ -6712,49 +6957,53 @@
         <v>13</v>
       </c>
     </row>
-    <row r="99" ht="14.25" spans="1:8">
-      <c r="A99" s="12"/>
-      <c r="B99" s="13"/>
-      <c r="C99" s="14" t="s">
+    <row r="99" ht="16.5" spans="1:8">
+      <c r="A99" s="2">
+        <v>34</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C99" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D99" s="15" t="s">
+      <c r="D99" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E99" s="15">
+      <c r="E99" s="13">
         <v>2</v>
       </c>
-      <c r="F99" s="15"/>
-      <c r="G99" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="H99" s="12" t="s">
+      <c r="F99" s="13"/>
+      <c r="G99" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H99" s="15" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="100" ht="16.5" spans="1:8">
-      <c r="A100" s="12">
+      <c r="A100" s="15">
         <v>35</v>
       </c>
-      <c r="B100" s="13" t="s">
+      <c r="B100" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="C100" s="14" t="s">
+      <c r="C100" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D100" s="15" t="s">
+      <c r="D100" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E100" s="15">
+      <c r="E100" s="13">
         <v>1</v>
       </c>
-      <c r="F100" s="14" t="s">
+      <c r="F100" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="G100" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="H100" s="12" t="s">
+      <c r="G100" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H100" s="15" t="s">
         <v>13</v>
       </c>
     </row>
@@ -6784,9 +7033,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="102" spans="1:8">
-      <c r="A102" s="2"/>
-      <c r="B102" s="3"/>
+    <row r="102" ht="15.75" spans="1:8">
+      <c r="A102" s="2">
+        <v>36</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>161</v>
+      </c>
       <c r="C102" s="4" t="s">
         <v>21</v>
       </c>
@@ -6804,9 +7057,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="103" spans="1:8">
-      <c r="A103" s="2"/>
-      <c r="B103" s="3"/>
+    <row r="103" ht="15.75" spans="1:8">
+      <c r="A103" s="2">
+        <v>36</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>161</v>
+      </c>
       <c r="C103" s="4" t="s">
         <v>22</v>
       </c>
@@ -6826,9 +7083,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="104" spans="1:8">
-      <c r="A104" s="2"/>
-      <c r="B104" s="3"/>
+    <row r="104" ht="15.75" spans="1:8">
+      <c r="A104" s="2">
+        <v>36</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>161</v>
+      </c>
       <c r="C104" s="4" t="s">
         <v>142</v>
       </c>
@@ -6846,9 +7107,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="105" spans="1:8">
-      <c r="A105" s="2"/>
-      <c r="B105" s="3"/>
+    <row r="105" ht="15.75" spans="1:8">
+      <c r="A105" s="2">
+        <v>36</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>161</v>
+      </c>
       <c r="C105" s="4" t="s">
         <v>143</v>
       </c>
@@ -6866,153 +7131,157 @@
         <v>13</v>
       </c>
     </row>
-    <row r="106" ht="14.25" spans="1:8">
-      <c r="A106" s="12"/>
-      <c r="B106" s="13"/>
-      <c r="C106" s="14" t="s">
+    <row r="106" ht="16.5" spans="1:8">
+      <c r="A106" s="2">
+        <v>36</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C106" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="D106" s="15">
+      <c r="D106" s="13">
         <v>1</v>
       </c>
-      <c r="E106" s="15">
+      <c r="E106" s="13">
         <v>2</v>
       </c>
-      <c r="F106" s="15"/>
-      <c r="G106" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="H106" s="12" t="s">
+      <c r="F106" s="13"/>
+      <c r="G106" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H106" s="15" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="107" ht="16.5" spans="1:8">
-      <c r="A107" s="12">
+      <c r="A107" s="15">
         <v>37</v>
       </c>
-      <c r="B107" s="13" t="s">
+      <c r="B107" s="17" t="s">
         <v>162</v>
       </c>
-      <c r="C107" s="14" t="s">
+      <c r="C107" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D107" s="15" t="s">
+      <c r="D107" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E107" s="15">
+      <c r="E107" s="13">
         <v>1</v>
       </c>
-      <c r="F107" s="14" t="s">
+      <c r="F107" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="G107" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="H107" s="12" t="s">
+      <c r="G107" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H107" s="15" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="108" ht="16.5" spans="1:8">
-      <c r="A108" s="12">
+      <c r="A108" s="15">
         <v>38</v>
       </c>
-      <c r="B108" s="13" t="s">
+      <c r="B108" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="C108" s="14" t="s">
+      <c r="C108" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D108" s="15">
+      <c r="D108" s="13">
         <v>1</v>
       </c>
-      <c r="E108" s="15">
+      <c r="E108" s="13">
         <v>1</v>
       </c>
-      <c r="F108" s="14" t="s">
+      <c r="F108" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="G108" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="H108" s="12" t="s">
+      <c r="G108" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H108" s="15" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="109" ht="16.5" spans="1:8">
-      <c r="A109" s="12">
+      <c r="A109" s="15">
         <v>39</v>
       </c>
-      <c r="B109" s="13" t="s">
+      <c r="B109" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="C109" s="14" t="s">
+      <c r="C109" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D109" s="15">
+      <c r="D109" s="13">
         <v>1</v>
       </c>
-      <c r="E109" s="15">
+      <c r="E109" s="13">
         <v>1</v>
       </c>
-      <c r="F109" s="14" t="s">
+      <c r="F109" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="G109" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="H109" s="12" t="s">
+      <c r="G109" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H109" s="15" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="110" ht="16.5" spans="1:8">
-      <c r="A110" s="12">
+      <c r="A110" s="15">
         <v>40</v>
       </c>
-      <c r="B110" s="13" t="s">
+      <c r="B110" s="17" t="s">
         <v>165</v>
       </c>
-      <c r="C110" s="14" t="s">
+      <c r="C110" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D110" s="15">
+      <c r="D110" s="13">
         <v>1</v>
       </c>
-      <c r="E110" s="15">
+      <c r="E110" s="13">
         <v>1</v>
       </c>
-      <c r="F110" s="14" t="s">
+      <c r="F110" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="G110" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="H110" s="12" t="s">
+      <c r="G110" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H110" s="15" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="111" ht="16.5" spans="1:8">
-      <c r="A111" s="12">
+      <c r="A111" s="15">
         <v>41</v>
       </c>
-      <c r="B111" s="13" t="s">
+      <c r="B111" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="C111" s="14" t="s">
+      <c r="C111" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D111" s="15">
+      <c r="D111" s="13">
         <v>1</v>
       </c>
-      <c r="E111" s="15">
+      <c r="E111" s="13">
         <v>1</v>
       </c>
-      <c r="F111" s="14" t="s">
+      <c r="F111" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="G111" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="H111" s="12" t="s">
+      <c r="G111" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H111" s="15" t="s">
         <v>13</v>
       </c>
     </row>
@@ -7020,7 +7289,7 @@
       <c r="A112" s="2">
         <v>42</v>
       </c>
-      <c r="B112" s="17" t="s">
+      <c r="B112" s="16" t="s">
         <v>167</v>
       </c>
       <c r="C112" s="4" t="s">
@@ -7040,9 +7309,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="113" spans="1:8">
-      <c r="A113" s="2"/>
-      <c r="B113" s="3"/>
+    <row r="113" ht="15.75" spans="1:8">
+      <c r="A113" s="2">
+        <v>42</v>
+      </c>
+      <c r="B113" s="16" t="s">
+        <v>167</v>
+      </c>
       <c r="C113" s="4" t="s">
         <v>169</v>
       </c>
@@ -7062,25 +7335,29 @@
         <v>13</v>
       </c>
     </row>
-    <row r="114" ht="14.25" spans="1:8">
-      <c r="A114" s="12"/>
-      <c r="B114" s="13"/>
-      <c r="C114" s="14" t="s">
+    <row r="114" ht="16.5" spans="1:8">
+      <c r="A114" s="2">
+        <v>42</v>
+      </c>
+      <c r="B114" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="C114" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="D114" s="15" t="s">
+      <c r="D114" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E114" s="15">
+      <c r="E114" s="13">
         <v>1</v>
       </c>
-      <c r="F114" s="14" t="s">
+      <c r="F114" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="G114" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="H114" s="12" t="s">
+      <c r="G114" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H114" s="15" t="s">
         <v>13</v>
       </c>
     </row>
@@ -7088,7 +7365,7 @@
       <c r="A115" s="2">
         <v>43</v>
       </c>
-      <c r="B115" s="17" t="s">
+      <c r="B115" s="16" t="s">
         <v>171</v>
       </c>
       <c r="C115" s="4" t="s">
@@ -7110,25 +7387,29 @@
         <v>13</v>
       </c>
     </row>
-    <row r="116" ht="14.25" spans="1:8">
-      <c r="A116" s="12"/>
-      <c r="B116" s="13"/>
-      <c r="C116" s="14" t="s">
+    <row r="116" ht="16.5" spans="1:8">
+      <c r="A116" s="2">
+        <v>43</v>
+      </c>
+      <c r="B116" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="C116" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="D116" s="15" t="s">
+      <c r="D116" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E116" s="15">
+      <c r="E116" s="13">
         <v>1</v>
       </c>
-      <c r="F116" s="14" t="s">
+      <c r="F116" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="G116" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="H116" s="12" t="s">
+      <c r="G116" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H116" s="15" t="s">
         <v>13</v>
       </c>
     </row>
@@ -7136,7 +7417,7 @@
       <c r="A117" s="2">
         <v>44</v>
       </c>
-      <c r="B117" s="17" t="s">
+      <c r="B117" s="16" t="s">
         <v>173</v>
       </c>
       <c r="C117" s="4" t="s">
@@ -7159,8 +7440,12 @@
       </c>
     </row>
     <row r="118" spans="1:8">
-      <c r="A118" s="2"/>
-      <c r="B118" s="17"/>
+      <c r="A118" s="2">
+        <v>44</v>
+      </c>
+      <c r="B118" s="16" t="s">
+        <v>173</v>
+      </c>
       <c r="C118" s="4" t="s">
         <v>80</v>
       </c>
@@ -7179,8 +7464,12 @@
       </c>
     </row>
     <row r="119" spans="1:8">
-      <c r="A119" s="2"/>
-      <c r="B119" s="17"/>
+      <c r="A119" s="2">
+        <v>44</v>
+      </c>
+      <c r="B119" s="16" t="s">
+        <v>173</v>
+      </c>
       <c r="C119" s="4" t="s">
         <v>175</v>
       </c>
@@ -7199,8 +7488,12 @@
       </c>
     </row>
     <row r="120" spans="1:8">
-      <c r="A120" s="2"/>
-      <c r="B120" s="17"/>
+      <c r="A120" s="2">
+        <v>44</v>
+      </c>
+      <c r="B120" s="16" t="s">
+        <v>173</v>
+      </c>
       <c r="C120" s="4" t="s">
         <v>176</v>
       </c>
@@ -7219,21 +7512,25 @@
       </c>
     </row>
     <row r="121" ht="14.25" spans="1:8">
-      <c r="A121" s="12"/>
-      <c r="B121" s="42"/>
-      <c r="C121" s="14" t="s">
+      <c r="A121" s="2">
+        <v>44</v>
+      </c>
+      <c r="B121" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="C121" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="D121" s="15" t="s">
+      <c r="D121" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E121" s="12" t="s">
+      <c r="E121" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="F121" s="14" t="s">
+      <c r="F121" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="G121" s="14" t="s">
+      <c r="G121" s="12" t="s">
         <v>12</v>
       </c>
       <c r="H121" s="18" t="s">
@@ -7241,25 +7538,25 @@
       </c>
     </row>
     <row r="122" ht="14.25" spans="1:8">
-      <c r="A122" s="12">
+      <c r="A122" s="15">
         <v>45</v>
       </c>
-      <c r="B122" s="13" t="s">
+      <c r="B122" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="C122" s="14" t="s">
+      <c r="C122" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="D122" s="15" t="s">
+      <c r="D122" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E122" s="12">
+      <c r="E122" s="15">
         <v>3</v>
       </c>
-      <c r="F122" s="14" t="s">
+      <c r="F122" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="G122" s="14" t="s">
+      <c r="G122" s="12" t="s">
         <v>18</v>
       </c>
       <c r="H122" s="18" t="s">
@@ -7267,25 +7564,25 @@
       </c>
     </row>
     <row r="123" ht="14.25" spans="1:8">
-      <c r="A123" s="12">
+      <c r="A123" s="15">
         <v>46</v>
       </c>
-      <c r="B123" s="41" t="s">
+      <c r="B123" s="40" t="s">
         <v>180</v>
       </c>
-      <c r="C123" s="14" t="s">
+      <c r="C123" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="D123" s="15" t="s">
+      <c r="D123" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E123" s="12" t="s">
+      <c r="E123" s="15" t="s">
         <v>11</v>
       </c>
       <c r="F123" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="G123" s="14" t="s">
+      <c r="G123" s="12" t="s">
         <v>112</v>
       </c>
       <c r="H123" s="18" t="s">

--- a/drugs.xlsx
+++ b/drugs.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="182">
   <si>
     <t>序号</t>
   </si>
@@ -54,6 +54,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>ABCG2</t>
     </r>
     <r>
@@ -69,6 +76,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>瑞舒伐他汀（</t>
     </r>
     <r>
@@ -104,6 +117,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>ABL1</t>
     </r>
     <r>
@@ -119,6 +140,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>阿思尼布（</t>
     </r>
     <r>
@@ -142,6 +169,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>博舒替尼（</t>
     </r>
     <r>
@@ -159,6 +192,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>达沙替尼（</t>
     </r>
     <r>
@@ -173,6 +212,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>伊马替尼（</t>
     </r>
     <r>
@@ -190,6 +235,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>尼洛替尼（</t>
     </r>
     <r>
@@ -204,6 +255,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>泊那替尼（</t>
     </r>
     <r>
@@ -218,6 +275,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>ALK</t>
     </r>
     <r>
@@ -243,6 +308,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>阿来替尼（</t>
     </r>
     <r>
@@ -260,6 +331,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>布格替尼（</t>
     </r>
     <r>
@@ -274,6 +351,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>塞瑞替尼（</t>
     </r>
     <r>
@@ -288,6 +371,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>克唑替尼（</t>
     </r>
     <r>
@@ -302,6 +391,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>洛拉替尼（</t>
     </r>
     <r>
@@ -316,6 +411,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>ATM</t>
     </r>
     <r>
@@ -341,6 +443,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>奥拉帕利（</t>
     </r>
     <r>
@@ -355,6 +463,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>BARD1</t>
     </r>
     <r>
@@ -380,6 +495,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>BRAF</t>
     </r>
     <r>
@@ -405,6 +528,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>达拉非尼（</t>
     </r>
     <r>
@@ -419,6 +548,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>曲美替尼（</t>
     </r>
     <r>
@@ -433,6 +568,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>维莫非尼（</t>
     </r>
     <r>
@@ -453,6 +594,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>BRCA1/2</t>
     </r>
     <r>
@@ -478,6 +627,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>尼拉帕利（</t>
     </r>
     <r>
@@ -492,6 +647,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>芦卡帕利（</t>
     </r>
     <r>
@@ -509,6 +670,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>BRIP1</t>
     </r>
     <r>
@@ -534,6 +702,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>CDK12</t>
     </r>
     <r>
@@ -559,6 +734,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>奥拉帕利（</t>
     </r>
     <r>
@@ -573,6 +754,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>CFTR</t>
     </r>
     <r>
@@ -588,6 +776,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>依伐卡托（</t>
     </r>
     <r>
@@ -611,6 +805,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman Regular"/>
+        <charset val="134"/>
+      </rPr>
       <t>CFTR</t>
     </r>
     <r>
@@ -625,6 +825,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>CYP2B6</t>
     </r>
     <r>
@@ -640,6 +847,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>依非韦仑（</t>
     </r>
     <r>
@@ -669,6 +882,15 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <i/>
+        <u/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>CYP2C19</t>
     </r>
     <r>
@@ -684,6 +906,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>阿米替林（</t>
     </r>
     <r>
@@ -712,6 +941,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>西酞普兰（</t>
     </r>
     <r>
@@ -740,6 +976,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>氯吡格雷（</t>
     </r>
     <r>
@@ -766,6 +1008,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>右旋兰索拉唑（</t>
     </r>
     <r>
@@ -800,6 +1049,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>多塞平（</t>
     </r>
     <r>
@@ -823,6 +1078,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>艾司西酞普兰（</t>
     </r>
     <r>
@@ -846,6 +1107,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>兰索拉唑（</t>
     </r>
     <r>
@@ -874,6 +1142,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>奥美拉唑（</t>
     </r>
     <r>
@@ -899,6 +1174,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>泮托拉唑（</t>
     </r>
     <r>
@@ -922,6 +1203,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>伏立康唑（</t>
     </r>
     <r>
@@ -948,6 +1235,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>CHEK1/2</t>
     </r>
     <r>
@@ -973,6 +1267,15 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <i/>
+        <u/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>CYP2C9</t>
     </r>
     <r>
@@ -988,6 +1291,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>塞来昔布（</t>
     </r>
     <r>
@@ -1014,6 +1323,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>氟比洛芬（</t>
     </r>
     <r>
@@ -1037,6 +1352,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>氟伐他汀（</t>
     </r>
     <r>
@@ -1060,6 +1381,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>磷苯妥英（</t>
     </r>
     <r>
@@ -1086,6 +1413,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>布洛芬（</t>
     </r>
     <r>
@@ -1109,6 +1442,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>氯诺昔康（</t>
     </r>
     <r>
@@ -1132,6 +1471,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>美洛昔康（</t>
     </r>
     <r>
@@ -1155,6 +1500,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>苯妥英（</t>
     </r>
     <r>
@@ -1180,6 +1532,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>吡罗昔康（</t>
     </r>
     <r>
@@ -1203,6 +1561,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>替诺昔康（</t>
     </r>
     <r>
@@ -1226,6 +1590,15 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <i/>
+        <u/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>CYP2D6</t>
     </r>
     <r>
@@ -1241,6 +1614,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>阿米替林（</t>
     </r>
     <r>
@@ -1264,6 +1643,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>托莫西汀（</t>
     </r>
     <r>
@@ -1292,6 +1678,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>氯米帕明（</t>
     </r>
     <r>
@@ -1315,6 +1707,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>可待因（</t>
     </r>
     <r>
@@ -1341,6 +1739,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>地昔帕明（</t>
     </r>
     <r>
@@ -1364,6 +1768,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>氟伏沙明（</t>
     </r>
     <r>
@@ -1387,6 +1797,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>丙咪嗪（</t>
     </r>
     <r>
@@ -1410,6 +1826,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>去甲替林（</t>
     </r>
     <r>
@@ -1433,6 +1855,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>昂丹司琼（</t>
     </r>
     <r>
@@ -1459,6 +1887,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>帕罗西汀（</t>
     </r>
     <r>
@@ -1482,6 +1916,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>他莫昔芬（</t>
     </r>
     <r>
@@ -1505,6 +1945,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>曲马多（</t>
     </r>
     <r>
@@ -1528,6 +1974,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>曲米帕明（</t>
     </r>
     <r>
@@ -1551,6 +2003,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>托烷司琼（</t>
     </r>
     <r>
@@ -1574,6 +2032,15 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <i/>
+        <u/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>CYP3A5</t>
     </r>
     <r>
@@ -1589,6 +2056,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>他克莫司（</t>
     </r>
     <r>
@@ -1617,6 +2091,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>CYP4F2</t>
     </r>
     <r>
@@ -1632,6 +2114,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>华法林（</t>
     </r>
     <r>
@@ -1660,6 +2149,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>EGFR</t>
     </r>
     <r>
@@ -1685,6 +2182,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>阿法替尼（</t>
     </r>
     <r>
@@ -1699,6 +2202,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>埃万妥单抗（</t>
     </r>
     <r>
@@ -1713,6 +2222,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>达可替尼（</t>
     </r>
     <r>
@@ -1727,6 +2242,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>厄洛替尼（</t>
     </r>
     <r>
@@ -1741,6 +2262,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>吉非替尼（</t>
     </r>
     <r>
@@ -1755,6 +2282,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>莫博替尼（</t>
     </r>
     <r>
@@ -1769,6 +2302,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>奥希替尼（</t>
     </r>
     <r>
@@ -1783,6 +2322,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>ERBB2</t>
     </r>
     <r>
@@ -1809,6 +2356,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>恩美曲妥珠单抗（</t>
     </r>
     <r>
@@ -1823,6 +2376,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>曲妥珠单抗（</t>
     </r>
     <r>
@@ -1837,6 +2396,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>FANCL</t>
     </r>
     <r>
@@ -1862,6 +2428,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>FGFR1</t>
     </r>
     <r>
@@ -1887,6 +2460,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>佩米替尼（</t>
     </r>
     <r>
@@ -1901,6 +2480,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>FGFR2</t>
     </r>
     <r>
@@ -1926,6 +2512,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>厄达替尼（</t>
     </r>
     <r>
@@ -1940,6 +2532,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>英菲格拉替尼（</t>
     </r>
     <r>
@@ -1954,6 +2552,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>FGFR3</t>
     </r>
     <r>
@@ -1979,6 +2584,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>FLT3</t>
     </r>
     <r>
@@ -2004,6 +2616,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>吉瑞替尼（</t>
     </r>
     <r>
@@ -2018,6 +2636,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>IDH1</t>
     </r>
     <r>
@@ -2043,6 +2669,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>艾伏尼布（</t>
     </r>
     <r>
@@ -2057,6 +2689,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>IDH2</t>
     </r>
     <r>
@@ -2082,6 +2721,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>伊那尼布（</t>
     </r>
     <r>
@@ -2096,6 +2741,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>IFNL3/4</t>
     </r>
     <r>
@@ -2111,6 +2763,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>聚乙二醇干扰素</t>
     </r>
     <r>
@@ -2152,6 +2810,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>聚乙二醇干扰素</t>
     </r>
     <r>
@@ -2193,6 +2857,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>KIT</t>
     </r>
     <r>
@@ -2218,6 +2889,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>阿伐替尼（</t>
     </r>
     <r>
@@ -2232,6 +2909,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>瑞戈非尼（</t>
     </r>
     <r>
@@ -2246,6 +2929,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>瑞派替尼（</t>
     </r>
     <r>
@@ -2260,6 +2949,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>索拉非尼（</t>
     </r>
     <r>
@@ -2274,6 +2969,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>舒尼替尼（</t>
     </r>
     <r>
@@ -2288,6 +2989,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>KRAS</t>
     </r>
     <r>
@@ -2313,6 +3022,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>索托雷塞（</t>
     </r>
     <r>
@@ -2327,6 +3042,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>MET</t>
     </r>
     <r>
@@ -2352,6 +3075,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>卡马替尼（</t>
     </r>
     <r>
@@ -2366,6 +3095,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>特泊替尼（</t>
     </r>
     <r>
@@ -2380,6 +3115,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>NF1</t>
     </r>
     <r>
@@ -2405,6 +3147,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>司美替尼（</t>
     </r>
     <r>
@@ -2419,6 +3167,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>NUDT15</t>
     </r>
     <r>
@@ -2434,6 +3190,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>巯嘌呤（</t>
     </r>
     <r>
@@ -2462,6 +3225,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>NTRK1/2/3</t>
     </r>
     <r>
@@ -2487,6 +3257,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>恩曲替尼（</t>
     </r>
     <r>
@@ -2501,6 +3277,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>拉罗替尼（</t>
     </r>
     <r>
@@ -2515,6 +3297,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>PALB2</t>
     </r>
     <r>
@@ -2540,6 +3329,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>PDGFB</t>
     </r>
     <r>
@@ -2565,6 +3361,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>PDGFRA</t>
     </r>
     <r>
@@ -2590,6 +3393,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>PDGFRB</t>
     </r>
     <r>
@@ -2615,6 +3425,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>RAD51B</t>
     </r>
     <r>
@@ -2640,6 +3457,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>RAD51C</t>
     </r>
     <r>
@@ -2665,6 +3489,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>RAD51D</t>
     </r>
     <r>
@@ -2690,6 +3521,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>RAD54L</t>
     </r>
     <r>
@@ -2715,6 +3553,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>RET</t>
     </r>
     <r>
@@ -2740,6 +3586,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>卡博替尼（</t>
     </r>
     <r>
@@ -2754,6 +3606,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>普拉替尼（</t>
     </r>
     <r>
@@ -2768,6 +3626,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>塞普替尼（</t>
     </r>
     <r>
@@ -2782,6 +3646,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>ROS1</t>
     </r>
     <r>
@@ -2807,6 +3679,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>恩曲替尼（</t>
     </r>
     <r>
@@ -2821,6 +3699,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>SLCO1B</t>
     </r>
     <r>
@@ -2846,6 +3732,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>阿托伐他汀（</t>
     </r>
     <r>
@@ -2869,6 +3761,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>洛伐他汀（</t>
     </r>
     <r>
@@ -2892,6 +3790,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>匹伐他汀（</t>
     </r>
     <r>
@@ -2915,6 +3819,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>辛伐他汀（</t>
     </r>
     <r>
@@ -2938,6 +3848,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>TPMT</t>
     </r>
     <r>
@@ -2953,6 +3870,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>硫鸟嘌呤（</t>
     </r>
     <r>
@@ -2976,6 +3899,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>VKORC1</t>
     </r>
     <r>
@@ -2991,6 +3922,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>华法林（</t>
     </r>
     <r>
@@ -4437,8 +5374,8 @@
   <sheetPr/>
   <dimension ref="A1:H123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:H123"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A72" sqref="A72:B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -6265,9 +7202,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="72" ht="14.25" spans="1:8">
-      <c r="A72" s="15"/>
-      <c r="B72" s="17"/>
+    <row r="72" ht="16.5" spans="1:8">
+      <c r="A72" s="2">
+        <v>19</v>
+      </c>
+      <c r="B72" s="16" t="s">
+        <v>121</v>
+      </c>
       <c r="C72" s="12" t="s">
         <v>123</v>
       </c>

--- a/drugs.xlsx
+++ b/drugs.xlsx
@@ -9,6 +9,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$123</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="183">
   <si>
     <t>序号</t>
   </si>
@@ -108,6 +111,9 @@
   </si>
   <si>
     <t>1A</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
   <si>
     <t>降血脂药</t>
@@ -4719,7 +4725,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4795,9 +4801,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -4822,9 +4825,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -4836,9 +4836,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -5375,7 +5372,7 @@
   <dimension ref="A1:H123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A72" sqref="A72:B72"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -5422,12 +5419,14 @@
       <c r="E2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="5"/>
+      <c r="F2" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="G2" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" ht="16.5" spans="1:8">
@@ -5435,25 +5434,25 @@
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E3" s="10">
         <v>1</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" ht="16.5" spans="1:8">
@@ -5461,25 +5460,25 @@
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>18</v>
-      </c>
       <c r="H4" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" ht="16.5" spans="1:8">
@@ -5487,25 +5486,25 @@
         <v>2</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>20</v>
-      </c>
       <c r="F5" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" ht="16.5" spans="1:8">
@@ -5513,25 +5512,25 @@
         <v>2</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" ht="16.5" spans="1:8">
@@ -5539,25 +5538,25 @@
         <v>2</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" ht="16.5" spans="1:8">
@@ -5565,25 +5564,25 @@
         <v>2</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E8" s="13">
         <v>1</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" ht="15.75" spans="1:8">
@@ -5591,25 +5590,25 @@
         <v>3</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E9" s="5">
         <v>1</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" ht="15.75" spans="1:8">
@@ -5617,25 +5616,25 @@
         <v>3</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>28</v>
       </c>
       <c r="E10" s="5">
         <v>1</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" ht="15.75" spans="1:8">
@@ -5643,25 +5642,25 @@
         <v>3</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E11" s="5">
         <v>1</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" ht="15.75" spans="1:8">
@@ -5669,25 +5668,25 @@
         <v>3</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E12" s="5">
         <v>1</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" ht="16.5" spans="1:8">
@@ -5695,25 +5694,25 @@
         <v>3</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E13" s="13">
         <v>1</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" ht="16.5" spans="1:8">
@@ -5721,10 +5720,10 @@
         <v>4</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D14" s="13">
         <v>1</v>
@@ -5733,13 +5732,13 @@
         <v>1</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" ht="16.5" spans="1:8">
@@ -5747,10 +5746,10 @@
         <v>5</v>
       </c>
       <c r="B15" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="12" t="s">
         <v>35</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>34</v>
       </c>
       <c r="D15" s="13">
         <v>1</v>
@@ -5759,13 +5758,13 @@
         <v>1</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H15" s="15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" ht="15.75" spans="1:8">
@@ -5773,25 +5772,25 @@
         <v>6</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E16" s="5">
         <v>1</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" ht="15.75" spans="1:8">
@@ -5799,25 +5798,25 @@
         <v>6</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E17" s="5">
         <v>1</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" ht="16.5" spans="1:8">
@@ -5825,25 +5824,25 @@
         <v>6</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H18" s="15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" ht="15.75" spans="1:8">
@@ -5851,25 +5850,25 @@
         <v>7</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E19" s="5">
         <v>1</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" ht="15.75" spans="1:8">
@@ -5877,10 +5876,10 @@
         <v>7</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D20" s="5">
         <v>1</v>
@@ -5889,13 +5888,13 @@
         <v>1</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" ht="16.5" spans="1:8">
@@ -5903,25 +5902,25 @@
         <v>7</v>
       </c>
       <c r="B21" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>41</v>
-      </c>
       <c r="F21" s="12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G21" s="14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H21" s="15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" ht="16.5" spans="1:8">
@@ -5929,10 +5928,10 @@
         <v>8</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D22" s="13">
         <v>1</v>
@@ -5941,13 +5940,13 @@
         <v>1</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G22" s="14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H22" s="15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" ht="16.5" spans="1:8">
@@ -5955,10 +5954,10 @@
         <v>9</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D23" s="13">
         <v>1</v>
@@ -5967,37 +5966,39 @@
         <v>1</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G23" s="14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H23" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" ht="14.25" spans="1:8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="15">
         <v>10</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D24" s="12"/>
+        <v>51</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>10</v>
+      </c>
       <c r="E24" s="15" t="s">
         <v>11</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G24" s="13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H24" s="18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" ht="14.25" spans="1:8">
@@ -6005,10 +6006,10 @@
         <v>11</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D25" s="13" t="s">
         <v>10</v>
@@ -6017,13 +6018,13 @@
         <v>11</v>
       </c>
       <c r="F25" s="19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H25" s="18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -6031,10 +6032,10 @@
         <v>12</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C26" s="21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>10</v>
@@ -6042,12 +6043,14 @@
       <c r="E26" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F26" s="5"/>
+      <c r="F26" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="G26" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H26" s="22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -6055,10 +6058,10 @@
         <v>12</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>10</v>
@@ -6067,13 +6070,13 @@
         <v>11</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H27" s="22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -6081,10 +6084,10 @@
         <v>12</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>10</v>
@@ -6093,13 +6096,13 @@
         <v>11</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H28" s="22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -6107,25 +6110,25 @@
         <v>12</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C29" s="21" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H29" s="22" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -6133,25 +6136,25 @@
         <v>12</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C30" s="23" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F30" s="23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G30" s="23" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H30" s="22" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -6159,10 +6162,10 @@
         <v>12</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>10</v>
@@ -6171,13 +6174,13 @@
         <v>11</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H31" s="22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -6185,10 +6188,10 @@
         <v>12</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C32" s="21" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>10</v>
@@ -6197,13 +6200,13 @@
         <v>11</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H32" s="22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -6211,10 +6214,10 @@
         <v>12</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>10</v>
@@ -6223,13 +6226,13 @@
         <v>11</v>
       </c>
       <c r="F33" s="23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G33" s="23" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H33" s="22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -6237,10 +6240,10 @@
         <v>12</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>10</v>
@@ -6249,13 +6252,13 @@
         <v>11</v>
       </c>
       <c r="F34" s="23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G34" s="23" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H34" s="22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" ht="14.25" spans="1:8">
@@ -6263,10 +6266,10 @@
         <v>12</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>10</v>
@@ -6275,13 +6278,13 @@
         <v>11</v>
       </c>
       <c r="F35" s="23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G35" s="23" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H35" s="22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" ht="15.75" spans="1:8">
@@ -6289,10 +6292,10 @@
         <v>13</v>
       </c>
       <c r="B36" s="24" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D36" s="10">
         <v>1</v>
@@ -6301,13 +6304,13 @@
         <v>1</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -6315,10 +6318,10 @@
         <v>14</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C37" s="23" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>10</v>
@@ -6327,13 +6330,13 @@
         <v>11</v>
       </c>
       <c r="F37" s="23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G37" s="23" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H37" s="22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -6341,10 +6344,10 @@
         <v>14</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C38" s="23" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>10</v>
@@ -6353,13 +6356,13 @@
         <v>11</v>
       </c>
       <c r="F38" s="23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G38" s="23" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H38" s="22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -6367,10 +6370,10 @@
         <v>14</v>
       </c>
       <c r="B39" s="20" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C39" s="23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>10</v>
@@ -6378,12 +6381,14 @@
       <c r="E39" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F39" s="23"/>
+      <c r="F39" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="G39" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H39" s="22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -6391,23 +6396,25 @@
         <v>14</v>
       </c>
       <c r="B40" s="20" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C40" s="23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E40" s="2"/>
+      <c r="E40" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="F40" s="23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H40" s="22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -6415,10 +6422,10 @@
         <v>14</v>
       </c>
       <c r="B41" s="20" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C41" s="23" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>10</v>
@@ -6426,12 +6433,14 @@
       <c r="E41" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F41" s="25"/>
+      <c r="F41" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="G41" s="23" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H41" s="22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -6439,10 +6448,10 @@
         <v>14</v>
       </c>
       <c r="B42" s="20" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C42" s="23" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>10</v>
@@ -6450,12 +6459,14 @@
       <c r="E42" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F42" s="25"/>
+      <c r="F42" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="G42" s="23" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H42" s="22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -6463,10 +6474,10 @@
         <v>14</v>
       </c>
       <c r="B43" s="20" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C43" s="23" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D43" s="5" t="s">
         <v>10</v>
@@ -6475,13 +6486,13 @@
         <v>11</v>
       </c>
       <c r="F43" s="23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G43" s="23" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H43" s="22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -6489,10 +6500,10 @@
         <v>14</v>
       </c>
       <c r="B44" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="C44" s="26" t="s">
-        <v>86</v>
+        <v>77</v>
+      </c>
+      <c r="C44" s="25" t="s">
+        <v>87</v>
       </c>
       <c r="D44" s="5" t="s">
         <v>10</v>
@@ -6501,13 +6512,13 @@
         <v>11</v>
       </c>
       <c r="F44" s="23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H44" s="22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -6515,10 +6526,10 @@
         <v>14</v>
       </c>
       <c r="B45" s="20" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C45" s="23" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D45" s="5" t="s">
         <v>10</v>
@@ -6527,13 +6538,13 @@
         <v>11</v>
       </c>
       <c r="F45" s="23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G45" s="23" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H45" s="22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="46" ht="14.25" spans="1:8">
@@ -6541,10 +6552,10 @@
         <v>14</v>
       </c>
       <c r="B46" s="20" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C46" s="23" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D46" s="5" t="s">
         <v>10</v>
@@ -6552,23 +6563,25 @@
       <c r="E46" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F46" s="5"/>
+      <c r="F46" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="G46" s="23" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H46" s="22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47" ht="14.25" spans="1:8">
       <c r="A47" s="7">
         <v>15</v>
       </c>
-      <c r="B47" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="C47" s="28" t="s">
+      <c r="B47" s="26" t="s">
         <v>90</v>
+      </c>
+      <c r="C47" s="27" t="s">
+        <v>91</v>
       </c>
       <c r="D47" s="10" t="s">
         <v>10</v>
@@ -6576,25 +6589,25 @@
       <c r="E47" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F47" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="G47" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="H47" s="29" t="s">
-        <v>13</v>
+      <c r="F47" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="G47" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="H47" s="28" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="48" ht="14.25" spans="1:8">
       <c r="A48" s="7">
         <v>15</v>
       </c>
-      <c r="B48" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="C48" s="26" t="s">
-        <v>91</v>
+      <c r="B48" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="C48" s="25" t="s">
+        <v>92</v>
       </c>
       <c r="D48" s="5" t="s">
         <v>10</v>
@@ -6603,50 +6616,50 @@
         <v>11</v>
       </c>
       <c r="F48" s="23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H48" s="22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49" ht="14.25" spans="1:8">
       <c r="A49" s="7">
         <v>15</v>
       </c>
-      <c r="B49" s="27" t="s">
-        <v>89</v>
+      <c r="B49" s="26" t="s">
+        <v>90</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F49" s="23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G49" s="23" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H49" s="22" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="50" ht="14.25" spans="1:8">
       <c r="A50" s="7">
         <v>15</v>
       </c>
-      <c r="B50" s="27" t="s">
-        <v>89</v>
+      <c r="B50" s="26" t="s">
+        <v>90</v>
       </c>
       <c r="C50" s="23" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D50" s="5" t="s">
         <v>10</v>
@@ -6655,128 +6668,128 @@
         <v>11</v>
       </c>
       <c r="F50" s="23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H50" s="22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="51" ht="14.25" spans="1:8">
       <c r="A51" s="7">
         <v>15</v>
       </c>
-      <c r="B51" s="27" t="s">
-        <v>89</v>
+      <c r="B51" s="26" t="s">
+        <v>90</v>
       </c>
       <c r="C51" s="23" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F51" s="23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G51" s="23" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H51" s="22" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="52" ht="14.25" spans="1:8">
       <c r="A52" s="7">
         <v>15</v>
       </c>
-      <c r="B52" s="27" t="s">
-        <v>89</v>
+      <c r="B52" s="26" t="s">
+        <v>90</v>
       </c>
       <c r="C52" s="23" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F52" s="23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G52" s="23" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H52" s="22" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="53" ht="14.25" spans="1:8">
       <c r="A53" s="7">
         <v>15</v>
       </c>
-      <c r="B53" s="27" t="s">
-        <v>89</v>
+      <c r="B53" s="26" t="s">
+        <v>90</v>
       </c>
       <c r="C53" s="23" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F53" s="23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H53" s="22" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="54" ht="14.25" spans="1:8">
       <c r="A54" s="7">
         <v>15</v>
       </c>
-      <c r="B54" s="27" t="s">
-        <v>89</v>
+      <c r="B54" s="26" t="s">
+        <v>90</v>
       </c>
       <c r="C54" s="23" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F54" s="23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G54" s="23" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H54" s="22" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="55" ht="14.25" spans="1:8">
       <c r="A55" s="7">
         <v>15</v>
       </c>
-      <c r="B55" s="27" t="s">
-        <v>89</v>
+      <c r="B55" s="26" t="s">
+        <v>90</v>
       </c>
       <c r="C55" s="23" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D55" s="5" t="s">
         <v>10</v>
@@ -6785,24 +6798,24 @@
         <v>11</v>
       </c>
       <c r="F55" s="23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G55" s="23" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H55" s="22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="56" ht="14.25" spans="1:8">
       <c r="A56" s="7">
         <v>15</v>
       </c>
-      <c r="B56" s="27" t="s">
-        <v>89</v>
+      <c r="B56" s="26" t="s">
+        <v>90</v>
       </c>
       <c r="C56" s="23" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D56" s="5" t="s">
         <v>10</v>
@@ -6811,24 +6824,24 @@
         <v>11</v>
       </c>
       <c r="F56" s="23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G56" s="23" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H56" s="22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="57" ht="14.25" spans="1:8">
       <c r="A57" s="7">
         <v>15</v>
       </c>
-      <c r="B57" s="27" t="s">
-        <v>89</v>
+      <c r="B57" s="26" t="s">
+        <v>90</v>
       </c>
       <c r="C57" s="23" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D57" s="5" t="s">
         <v>10</v>
@@ -6837,24 +6850,24 @@
         <v>11</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H57" s="22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="58" ht="14.25" spans="1:8">
       <c r="A58" s="7">
         <v>15</v>
       </c>
-      <c r="B58" s="27" t="s">
-        <v>89</v>
+      <c r="B58" s="26" t="s">
+        <v>90</v>
       </c>
       <c r="C58" s="23" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D58" s="5" t="s">
         <v>10</v>
@@ -6863,24 +6876,24 @@
         <v>11</v>
       </c>
       <c r="F58" s="23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H58" s="22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="59" ht="14.25" spans="1:8">
       <c r="A59" s="7">
         <v>15</v>
       </c>
-      <c r="B59" s="27" t="s">
-        <v>89</v>
+      <c r="B59" s="26" t="s">
+        <v>90</v>
       </c>
       <c r="C59" s="23" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D59" s="5" t="s">
         <v>10</v>
@@ -6889,50 +6902,50 @@
         <v>11</v>
       </c>
       <c r="F59" s="23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H59" s="22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="60" ht="14.25" spans="1:8">
       <c r="A60" s="7">
         <v>15</v>
       </c>
-      <c r="B60" s="27" t="s">
-        <v>89</v>
+      <c r="B60" s="26" t="s">
+        <v>90</v>
       </c>
       <c r="C60" s="23" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F60" s="23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G60" s="23" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H60" s="22" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="61" ht="14.25" spans="1:8">
       <c r="A61" s="7">
         <v>15</v>
       </c>
-      <c r="B61" s="27" t="s">
-        <v>89</v>
+      <c r="B61" s="26" t="s">
+        <v>90</v>
       </c>
       <c r="C61" s="23" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D61" s="5" t="s">
         <v>10</v>
@@ -6940,47 +6953,51 @@
       <c r="E61" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F61" s="25"/>
+      <c r="F61" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="G61" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H61" s="22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="62" ht="14.25" spans="1:8">
-      <c r="A62" s="30">
+      <c r="A62" s="29">
         <v>16</v>
       </c>
-      <c r="B62" s="31" t="s">
-        <v>107</v>
-      </c>
-      <c r="C62" s="32" t="s">
+      <c r="B62" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="D62" s="33" t="s">
+      <c r="C62" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="D62" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="E62" s="30" t="s">
+      <c r="E62" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="F62" s="34"/>
-      <c r="G62" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="H62" s="36" t="s">
-        <v>13</v>
+      <c r="F62" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G62" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="H62" s="34" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="63" ht="14.25" spans="1:8">
       <c r="A63" s="15">
         <v>17</v>
       </c>
-      <c r="B63" s="37" t="s">
-        <v>110</v>
-      </c>
-      <c r="C63" s="38" t="s">
+      <c r="B63" s="35" t="s">
         <v>111</v>
+      </c>
+      <c r="C63" s="36" t="s">
+        <v>112</v>
       </c>
       <c r="D63" s="13" t="s">
         <v>10</v>
@@ -6988,12 +7005,14 @@
       <c r="E63" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="F63" s="39"/>
+      <c r="F63" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="G63" s="19" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H63" s="18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="64" ht="15.75" spans="1:8">
@@ -7001,25 +7020,25 @@
         <v>18</v>
       </c>
       <c r="B64" s="16" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E64" s="5">
         <v>1</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="65" ht="15.75" spans="1:8">
@@ -7027,25 +7046,25 @@
         <v>18</v>
       </c>
       <c r="B65" s="16" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E65" s="5">
         <v>1</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="66" ht="15.75" spans="1:8">
@@ -7053,25 +7072,25 @@
         <v>18</v>
       </c>
       <c r="B66" s="16" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E66" s="5">
         <v>1</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="67" ht="15.75" spans="1:8">
@@ -7079,23 +7098,25 @@
         <v>18</v>
       </c>
       <c r="B67" s="16" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E67" s="5">
         <v>2</v>
       </c>
-      <c r="F67" s="5"/>
+      <c r="F67" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="G67" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="68" ht="15.75" spans="1:8">
@@ -7103,25 +7124,25 @@
         <v>18</v>
       </c>
       <c r="B68" s="16" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E68" s="5">
         <v>1</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="69" ht="15.75" spans="1:8">
@@ -7129,25 +7150,25 @@
         <v>18</v>
       </c>
       <c r="B69" s="16" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E69" s="5">
         <v>1</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="70" ht="16.5" spans="1:8">
@@ -7155,25 +7176,25 @@
         <v>18</v>
       </c>
       <c r="B70" s="16" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D70" s="13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E70" s="13">
         <v>1</v>
       </c>
       <c r="F70" s="12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G70" s="14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H70" s="15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="71" ht="15.75" spans="1:8">
@@ -7181,25 +7202,25 @@
         <v>19</v>
       </c>
       <c r="B71" s="16" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="72" ht="16.5" spans="1:8">
@@ -7207,25 +7228,25 @@
         <v>19</v>
       </c>
       <c r="B72" s="16" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C72" s="12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D72" s="13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E72" s="13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F72" s="12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G72" s="14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H72" s="15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="73" ht="16.5" spans="1:8">
@@ -7233,10 +7254,10 @@
         <v>20</v>
       </c>
       <c r="B73" s="17" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C73" s="12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D73" s="13">
         <v>1</v>
@@ -7245,13 +7266,13 @@
         <v>1</v>
       </c>
       <c r="F73" s="12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G73" s="14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H73" s="15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="74" ht="16.5" spans="1:8">
@@ -7259,23 +7280,25 @@
         <v>21</v>
       </c>
       <c r="B74" s="17" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C74" s="12" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E74" s="13">
         <v>2</v>
       </c>
-      <c r="F74" s="13"/>
+      <c r="F74" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="G74" s="14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H74" s="15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="75" ht="15.75" spans="1:8">
@@ -7283,25 +7306,25 @@
         <v>22</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E75" s="5">
         <v>1</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G75" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="76" ht="15.75" spans="1:8">
@@ -7309,25 +7332,25 @@
         <v>22</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E76" s="5">
         <v>1</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="77" ht="16.5" spans="1:8">
@@ -7335,25 +7358,25 @@
         <v>22</v>
       </c>
       <c r="B77" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C77" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="C77" s="12" t="s">
-        <v>126</v>
-      </c>
       <c r="D77" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E77" s="13">
         <v>1</v>
       </c>
       <c r="F77" s="12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G77" s="14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H77" s="15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="78" ht="16.5" spans="1:8">
@@ -7361,25 +7384,25 @@
         <v>23</v>
       </c>
       <c r="B78" s="17" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C78" s="12" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D78" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E78" s="13">
         <v>1</v>
       </c>
       <c r="F78" s="12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G78" s="14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H78" s="15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="79" ht="16.5" spans="1:8">
@@ -7387,10 +7410,10 @@
         <v>24</v>
       </c>
       <c r="B79" s="17" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C79" s="12" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D79" s="13">
         <v>1</v>
@@ -7399,39 +7422,39 @@
         <v>1</v>
       </c>
       <c r="F79" s="12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G79" s="14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H79" s="15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="80" ht="16.5" spans="1:8">
       <c r="A80" s="15">
         <v>25</v>
       </c>
-      <c r="B80" s="40" t="s">
-        <v>133</v>
+      <c r="B80" s="37" t="s">
+        <v>134</v>
       </c>
       <c r="C80" s="12" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D80" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E80" s="13">
         <v>1</v>
       </c>
       <c r="F80" s="12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G80" s="14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H80" s="15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="81" ht="16.5" spans="1:8">
@@ -7439,25 +7462,25 @@
         <v>26</v>
       </c>
       <c r="B81" s="17" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C81" s="12" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D81" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E81" s="13">
         <v>1</v>
       </c>
       <c r="F81" s="12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G81" s="14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H81" s="15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -7465,10 +7488,10 @@
         <v>27</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D82" s="5" t="s">
         <v>10</v>
@@ -7476,12 +7499,14 @@
       <c r="E82" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F82" s="25"/>
+      <c r="F82" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="G82" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H82" s="22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="83" ht="14.25" spans="1:8">
@@ -7489,25 +7514,25 @@
         <v>27</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C83" s="41" t="s">
-        <v>139</v>
-      </c>
-      <c r="D83" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="C83" s="38" t="s">
+        <v>140</v>
+      </c>
+      <c r="D83" s="39" t="s">
         <v>10</v>
       </c>
       <c r="E83" s="15" t="s">
         <v>11</v>
       </c>
       <c r="F83" s="19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G83" s="12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H83" s="18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="84" ht="15.75" spans="1:8">
@@ -7515,25 +7540,25 @@
         <v>28</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E84" s="5">
         <v>1</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G84" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="85" ht="15.75" spans="1:8">
@@ -7541,25 +7566,25 @@
         <v>28</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G85" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="86" ht="15.75" spans="1:8">
@@ -7567,10 +7592,10 @@
         <v>28</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D86" s="5">
         <v>1</v>
@@ -7579,13 +7604,13 @@
         <v>1</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G86" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="87" ht="15.75" spans="1:8">
@@ -7593,10 +7618,10 @@
         <v>28</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D87" s="5">
         <v>1</v>
@@ -7605,13 +7630,13 @@
         <v>1</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G87" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="88" ht="15.75" spans="1:8">
@@ -7619,23 +7644,25 @@
         <v>28</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E88" s="5">
         <v>2</v>
       </c>
-      <c r="F88" s="5"/>
+      <c r="F88" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="G88" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="89" ht="16.5" spans="1:8">
@@ -7643,10 +7670,10 @@
         <v>28</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C89" s="12" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D89" s="13">
         <v>1</v>
@@ -7655,39 +7682,39 @@
         <v>1</v>
       </c>
       <c r="F89" s="12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G89" s="14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H89" s="15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="90" ht="16.5" spans="1:8">
       <c r="A90" s="15">
         <v>29</v>
       </c>
-      <c r="B90" s="40" t="s">
-        <v>146</v>
+      <c r="B90" s="37" t="s">
+        <v>147</v>
       </c>
       <c r="C90" s="12" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D90" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E90" s="13">
         <v>1</v>
       </c>
       <c r="F90" s="12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G90" s="14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H90" s="15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="91" ht="15.75" spans="1:8">
@@ -7695,25 +7722,25 @@
         <v>30</v>
       </c>
       <c r="B91" s="16" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G91" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="92" ht="15.75" spans="1:8">
@@ -7721,25 +7748,25 @@
         <v>30</v>
       </c>
       <c r="B92" s="16" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G92" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="93" ht="16.5" spans="1:8">
@@ -7747,25 +7774,25 @@
         <v>30</v>
       </c>
       <c r="B93" s="16" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C93" s="12" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D93" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E93" s="13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F93" s="12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G93" s="14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H93" s="15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="94" ht="16.5" spans="1:8">
@@ -7773,36 +7800,36 @@
         <v>31</v>
       </c>
       <c r="B94" s="17" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C94" s="12" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D94" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E94" s="13">
         <v>1</v>
       </c>
       <c r="F94" s="12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G94" s="14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H94" s="15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="95" ht="14.25" spans="1:8">
       <c r="A95" s="15">
         <v>32</v>
       </c>
-      <c r="B95" s="37" t="s">
-        <v>153</v>
-      </c>
-      <c r="C95" s="38" t="s">
+      <c r="B95" s="35" t="s">
         <v>154</v>
+      </c>
+      <c r="C95" s="36" t="s">
+        <v>155</v>
       </c>
       <c r="D95" s="13" t="s">
         <v>10</v>
@@ -7811,13 +7838,13 @@
         <v>11</v>
       </c>
       <c r="F95" s="12" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G95" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H95" s="18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="96" ht="15.75" spans="1:8">
@@ -7825,25 +7852,25 @@
         <v>33</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E96" s="5">
         <v>1</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G96" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="97" ht="16.5" spans="1:8">
@@ -7851,25 +7878,25 @@
         <v>33</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C97" s="12" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D97" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E97" s="13">
         <v>1</v>
       </c>
       <c r="F97" s="12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G97" s="14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H97" s="15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="98" ht="15.75" spans="1:8">
@@ -7877,10 +7904,10 @@
         <v>34</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D98" s="5">
         <v>1</v>
@@ -7889,13 +7916,13 @@
         <v>1</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G98" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="99" ht="16.5" spans="1:8">
@@ -7903,23 +7930,25 @@
         <v>34</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C99" s="12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D99" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E99" s="13">
         <v>2</v>
       </c>
-      <c r="F99" s="13"/>
+      <c r="F99" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="G99" s="14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H99" s="15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="100" ht="16.5" spans="1:8">
@@ -7927,25 +7956,25 @@
         <v>35</v>
       </c>
       <c r="B100" s="17" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C100" s="12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D100" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E100" s="13">
         <v>1</v>
       </c>
       <c r="F100" s="12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G100" s="14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H100" s="15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="101" ht="15.75" spans="1:8">
@@ -7953,25 +7982,25 @@
         <v>36</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E101" s="5">
         <v>1</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G101" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="102" ht="15.75" spans="1:8">
@@ -7979,23 +8008,25 @@
         <v>36</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E102" s="5">
         <v>2</v>
       </c>
-      <c r="F102" s="5"/>
+      <c r="F102" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="G102" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="103" ht="15.75" spans="1:8">
@@ -8003,25 +8034,25 @@
         <v>36</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E103" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G103" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="104" ht="15.75" spans="1:8">
@@ -8029,10 +8060,10 @@
         <v>36</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D104" s="5">
         <v>1</v>
@@ -8040,12 +8071,14 @@
       <c r="E104" s="5">
         <v>2</v>
       </c>
-      <c r="F104" s="5"/>
+      <c r="F104" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="G104" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="105" ht="15.75" spans="1:8">
@@ -8053,10 +8086,10 @@
         <v>36</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D105" s="5">
         <v>1</v>
@@ -8064,12 +8097,14 @@
       <c r="E105" s="5">
         <v>2</v>
       </c>
-      <c r="F105" s="5"/>
+      <c r="F105" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="G105" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="106" ht="16.5" spans="1:8">
@@ -8077,10 +8112,10 @@
         <v>36</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C106" s="12" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D106" s="13">
         <v>1</v>
@@ -8088,12 +8123,14 @@
       <c r="E106" s="13">
         <v>2</v>
       </c>
-      <c r="F106" s="13"/>
+      <c r="F106" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="G106" s="14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H106" s="15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="107" ht="16.5" spans="1:8">
@@ -8101,25 +8138,25 @@
         <v>37</v>
       </c>
       <c r="B107" s="17" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C107" s="12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D107" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E107" s="13">
         <v>1</v>
       </c>
       <c r="F107" s="12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G107" s="14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H107" s="15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="108" ht="16.5" spans="1:8">
@@ -8127,10 +8164,10 @@
         <v>38</v>
       </c>
       <c r="B108" s="17" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C108" s="12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D108" s="13">
         <v>1</v>
@@ -8139,13 +8176,13 @@
         <v>1</v>
       </c>
       <c r="F108" s="12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G108" s="14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H108" s="15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="109" ht="16.5" spans="1:8">
@@ -8153,10 +8190,10 @@
         <v>39</v>
       </c>
       <c r="B109" s="17" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C109" s="12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D109" s="13">
         <v>1</v>
@@ -8165,13 +8202,13 @@
         <v>1</v>
       </c>
       <c r="F109" s="12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G109" s="14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H109" s="15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="110" ht="16.5" spans="1:8">
@@ -8179,10 +8216,10 @@
         <v>40</v>
       </c>
       <c r="B110" s="17" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C110" s="12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D110" s="13">
         <v>1</v>
@@ -8191,13 +8228,13 @@
         <v>1</v>
       </c>
       <c r="F110" s="12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G110" s="14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H110" s="15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="111" ht="16.5" spans="1:8">
@@ -8205,10 +8242,10 @@
         <v>41</v>
       </c>
       <c r="B111" s="17" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C111" s="12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D111" s="13">
         <v>1</v>
@@ -8217,13 +8254,13 @@
         <v>1</v>
       </c>
       <c r="F111" s="12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G111" s="14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H111" s="15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="112" ht="15.75" spans="1:8">
@@ -8231,23 +8268,25 @@
         <v>42</v>
       </c>
       <c r="B112" s="16" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E112" s="5">
         <v>2</v>
       </c>
-      <c r="F112" s="5"/>
+      <c r="F112" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="G112" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="113" ht="15.75" spans="1:8">
@@ -8255,25 +8294,25 @@
         <v>42</v>
       </c>
       <c r="B113" s="16" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D113" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E113" s="5">
         <v>1</v>
       </c>
       <c r="F113" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G113" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="114" ht="16.5" spans="1:8">
@@ -8281,25 +8320,25 @@
         <v>42</v>
       </c>
       <c r="B114" s="16" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C114" s="12" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D114" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E114" s="13">
         <v>1</v>
       </c>
       <c r="F114" s="12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G114" s="14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H114" s="15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="115" ht="15.75" spans="1:8">
@@ -8307,25 +8346,25 @@
         <v>43</v>
       </c>
       <c r="B115" s="16" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E115" s="5">
         <v>1</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G115" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H115" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="116" ht="16.5" spans="1:8">
@@ -8333,25 +8372,25 @@
         <v>43</v>
       </c>
       <c r="B116" s="16" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C116" s="12" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D116" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E116" s="13">
         <v>1</v>
       </c>
       <c r="F116" s="12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G116" s="14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H116" s="15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -8359,10 +8398,10 @@
         <v>44</v>
       </c>
       <c r="B117" s="16" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D117" s="5" t="s">
         <v>10</v>
@@ -8371,13 +8410,13 @@
         <v>11</v>
       </c>
       <c r="F117" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G117" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H117" s="22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -8385,10 +8424,10 @@
         <v>44</v>
       </c>
       <c r="B118" s="16" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D118" s="5" t="s">
         <v>10</v>
@@ -8396,12 +8435,14 @@
       <c r="E118" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F118" s="5"/>
+      <c r="F118" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="G118" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H118" s="22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -8409,10 +8450,10 @@
         <v>44</v>
       </c>
       <c r="B119" s="16" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D119" s="5" t="s">
         <v>10</v>
@@ -8420,12 +8461,14 @@
       <c r="E119" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F119" s="5"/>
+      <c r="F119" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="G119" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H119" s="22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -8433,10 +8476,10 @@
         <v>44</v>
       </c>
       <c r="B120" s="16" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D120" s="5" t="s">
         <v>10</v>
@@ -8444,12 +8487,14 @@
       <c r="E120" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F120" s="5"/>
+      <c r="F120" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="G120" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H120" s="22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="121" ht="14.25" spans="1:8">
@@ -8457,10 +8502,10 @@
         <v>44</v>
       </c>
       <c r="B121" s="16" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C121" s="12" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D121" s="13" t="s">
         <v>10</v>
@@ -8469,13 +8514,13 @@
         <v>11</v>
       </c>
       <c r="F121" s="12" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G121" s="12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H121" s="18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="122" ht="14.25" spans="1:8">
@@ -8483,10 +8528,10 @@
         <v>45</v>
       </c>
       <c r="B122" s="17" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C122" s="12" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D122" s="13" t="s">
         <v>10</v>
@@ -8495,24 +8540,24 @@
         <v>3</v>
       </c>
       <c r="F122" s="12" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G122" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H122" s="18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="123" ht="14.25" spans="1:8">
       <c r="A123" s="15">
         <v>46</v>
       </c>
-      <c r="B123" s="40" t="s">
-        <v>180</v>
+      <c r="B123" s="37" t="s">
+        <v>181</v>
       </c>
       <c r="C123" s="12" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D123" s="13" t="s">
         <v>10</v>
@@ -8521,16 +8566,19 @@
         <v>11</v>
       </c>
       <c r="F123" s="19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G123" s="12" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H123" s="18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H123">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/drugs.xlsx
+++ b/drugs.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="184">
   <si>
     <t>序号</t>
   </si>
@@ -54,6 +54,9 @@
   </si>
   <si>
     <t>本指南分级</t>
+  </si>
+  <si>
+    <t>临床意义摘要</t>
   </si>
   <si>
     <r>
@@ -5369,15 +5372,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H123"/>
+  <dimension ref="A1:I123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="I2" sqref="I2:I123"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:8">
+    <row r="1" ht="14.25" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5402,328 +5405,367 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" ht="14.25" spans="1:8">
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" spans="1:9">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" ht="16.5" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" ht="16.5" spans="1:9">
       <c r="A3" s="7">
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E3" s="10">
         <v>1</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" ht="16.5" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" ht="16.5" spans="1:9">
       <c r="A4" s="7">
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>19</v>
-      </c>
       <c r="H4" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" ht="16.5" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" ht="16.5" spans="1:9">
       <c r="A5" s="7">
         <v>2</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="F5" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" ht="16.5" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" ht="16.5" spans="1:9">
       <c r="A6" s="7">
         <v>2</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" ht="16.5" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" ht="16.5" spans="1:9">
       <c r="A7" s="7">
         <v>2</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" ht="16.5" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" ht="16.5" spans="1:9">
       <c r="A8" s="7">
         <v>2</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E8" s="13">
         <v>1</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" ht="15.75" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" ht="15.75" spans="1:9">
       <c r="A9" s="2">
         <v>3</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E9" s="5">
         <v>1</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" ht="15.75" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" ht="15.75" spans="1:9">
       <c r="A10" s="2">
         <v>3</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>29</v>
       </c>
       <c r="E10" s="5">
         <v>1</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" ht="15.75" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" ht="15.75" spans="1:9">
       <c r="A11" s="2">
         <v>3</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E11" s="5">
         <v>1</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" ht="15.75" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" ht="15.75" spans="1:9">
       <c r="A12" s="2">
         <v>3</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E12" s="5">
         <v>1</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" ht="16.5" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" ht="16.5" spans="1:9">
       <c r="A13" s="2">
         <v>3</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E13" s="13">
         <v>1</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" ht="16.5" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" ht="16.5" spans="1:9">
       <c r="A14" s="15">
         <v>4</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D14" s="13">
         <v>1</v>
@@ -5732,24 +5774,27 @@
         <v>1</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" ht="16.5" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" ht="16.5" spans="1:9">
       <c r="A15" s="15">
         <v>5</v>
       </c>
       <c r="B15" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="12" t="s">
         <v>36</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>35</v>
       </c>
       <c r="D15" s="13">
         <v>1</v>
@@ -5758,128 +5803,143 @@
         <v>1</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H15" s="15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" ht="15.75" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" ht="15.75" spans="1:9">
       <c r="A16" s="2">
         <v>6</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E16" s="5">
         <v>1</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" ht="15.75" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" ht="15.75" spans="1:9">
       <c r="A17" s="2">
         <v>6</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E17" s="5">
         <v>1</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" ht="16.5" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" ht="16.5" spans="1:9">
       <c r="A18" s="2">
         <v>6</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H18" s="15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" ht="15.75" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" ht="15.75" spans="1:9">
       <c r="A19" s="2">
         <v>7</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E19" s="5">
         <v>1</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" ht="15.75" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" ht="15.75" spans="1:9">
       <c r="A20" s="2">
         <v>7</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D20" s="5">
         <v>1</v>
@@ -5888,50 +5948,56 @@
         <v>1</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" ht="16.5" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" ht="16.5" spans="1:9">
       <c r="A21" s="2">
         <v>7</v>
       </c>
       <c r="B21" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>42</v>
-      </c>
       <c r="F21" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G21" s="14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H21" s="15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" ht="16.5" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" ht="16.5" spans="1:9">
       <c r="A22" s="15">
         <v>8</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D22" s="13">
         <v>1</v>
@@ -5940,24 +6006,27 @@
         <v>1</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G22" s="14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H22" s="15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" ht="16.5" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" ht="16.5" spans="1:9">
       <c r="A23" s="15">
         <v>9</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D23" s="13">
         <v>1</v>
@@ -5966,336 +6035,375 @@
         <v>1</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G23" s="14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H23" s="15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" ht="14.25" spans="1:9">
       <c r="A24" s="15">
         <v>10</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G24" s="13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H24" s="18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" ht="14.25" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" ht="14.25" spans="1:9">
       <c r="A25" s="15">
         <v>11</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" s="19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H25" s="18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="2">
         <v>12</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C26" s="21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H26" s="22" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="2">
         <v>12</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H27" s="22" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="2">
         <v>12</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H28" s="22" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I28" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="2">
         <v>12</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C29" s="21" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H29" s="22" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>68</v>
+      </c>
+      <c r="I29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="2">
         <v>12</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C30" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="G30" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="H30" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="D30" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F30" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="G30" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="H30" s="22" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+      <c r="I30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="2">
         <v>12</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H31" s="22" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="2">
         <v>12</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C32" s="21" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H32" s="22" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I32" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="2">
         <v>12</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" s="23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G33" s="23" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H33" s="22" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I33" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="2">
         <v>12</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" s="23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G34" s="23" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H34" s="22" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="35" ht="14.25" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I34" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" ht="14.25" spans="1:9">
       <c r="A35" s="2">
         <v>12</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" s="23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G35" s="23" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H35" s="22" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="36" ht="15.75" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I35" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" ht="15.75" spans="1:9">
       <c r="A36" s="7">
         <v>13</v>
       </c>
       <c r="B36" s="24" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D36" s="10">
         <v>1</v>
@@ -6304,960 +6412,1071 @@
         <v>1</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I36" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="2">
         <v>14</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C37" s="23" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" s="23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G37" s="23" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H37" s="22" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I37" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="2">
         <v>14</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C38" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F38" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="G38" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="D38" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F38" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="G38" s="23" t="s">
-        <v>79</v>
-      </c>
       <c r="H38" s="22" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I38" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="2">
         <v>14</v>
       </c>
       <c r="B39" s="20" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C39" s="23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H39" s="22" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I39" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="2">
         <v>14</v>
       </c>
       <c r="B40" s="20" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C40" s="23" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F40" s="23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H40" s="22" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="2">
         <v>14</v>
       </c>
       <c r="B41" s="20" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C41" s="23" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G41" s="23" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H41" s="22" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="2">
         <v>14</v>
       </c>
       <c r="B42" s="20" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C42" s="23" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G42" s="23" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H42" s="22" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I42" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="2">
         <v>14</v>
       </c>
       <c r="B43" s="20" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C43" s="23" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" s="23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G43" s="23" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H43" s="22" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I43" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="2">
         <v>14</v>
       </c>
       <c r="B44" s="20" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C44" s="25" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" s="23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H44" s="22" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I44" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="2">
         <v>14</v>
       </c>
       <c r="B45" s="20" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C45" s="23" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" s="23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G45" s="23" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H45" s="22" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="46" ht="14.25" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I45" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" ht="14.25" spans="1:9">
       <c r="A46" s="2">
         <v>14</v>
       </c>
       <c r="B46" s="20" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C46" s="23" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G46" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="H46" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="I46" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" ht="14.25" spans="1:9">
+      <c r="A47" s="7">
+        <v>15</v>
+      </c>
+      <c r="B47" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="C47" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="D47" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F46" s="5" t="s">
+      <c r="E47" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G46" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="H46" s="22" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="47" ht="14.25" spans="1:8">
-      <c r="A47" s="7">
-        <v>15</v>
-      </c>
-      <c r="B47" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="C47" s="27" t="s">
+      <c r="F47" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="G47" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="H47" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="I47" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" ht="14.25" spans="1:9">
+      <c r="A48" s="7">
+        <v>15</v>
+      </c>
+      <c r="B48" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="D47" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E47" s="7" t="s">
+      <c r="C48" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="D48" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F47" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="G47" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="H47" s="28" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="48" ht="14.25" spans="1:8">
-      <c r="A48" s="7">
-        <v>15</v>
-      </c>
-      <c r="B48" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="C48" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>10</v>
-      </c>
       <c r="E48" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F48" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="H48" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="I48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" ht="14.25" spans="1:9">
+      <c r="A49" s="7">
+        <v>15</v>
+      </c>
+      <c r="B49" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F49" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="G49" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="H49" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="I49" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" ht="14.25" spans="1:9">
+      <c r="A50" s="7">
+        <v>15</v>
+      </c>
+      <c r="B50" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="C50" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="D50" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F48" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="G48" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="H48" s="22" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="49" ht="14.25" spans="1:8">
-      <c r="A49" s="7">
-        <v>15</v>
-      </c>
-      <c r="B49" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E49" s="2" t="s">
+      <c r="E50" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F50" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H50" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="I50" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" ht="14.25" spans="1:9">
+      <c r="A51" s="7">
+        <v>15</v>
+      </c>
+      <c r="B51" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="C51" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F51" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="G51" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="H51" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="I51" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" ht="14.25" spans="1:9">
+      <c r="A52" s="7">
+        <v>15</v>
+      </c>
+      <c r="B52" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="C52" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F52" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="G52" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="H52" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="I52" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" ht="14.25" spans="1:9">
+      <c r="A53" s="7">
+        <v>15</v>
+      </c>
+      <c r="B53" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="C53" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F53" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H53" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="I53" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" ht="14.25" spans="1:9">
+      <c r="A54" s="7">
+        <v>15</v>
+      </c>
+      <c r="B54" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="C54" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F54" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="G54" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="H54" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="I54" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55" ht="14.25" spans="1:9">
+      <c r="A55" s="7">
+        <v>15</v>
+      </c>
+      <c r="B55" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="C55" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="D55" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F49" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="G49" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="H49" s="22" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="50" ht="14.25" spans="1:8">
-      <c r="A50" s="7">
-        <v>15</v>
-      </c>
-      <c r="B50" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="C50" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E50" s="2" t="s">
+      <c r="E55" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F55" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="G55" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="H55" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="I55" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" ht="14.25" spans="1:9">
+      <c r="A56" s="7">
+        <v>15</v>
+      </c>
+      <c r="B56" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="C56" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="D56" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F50" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="G50" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="H50" s="22" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="51" ht="14.25" spans="1:8">
-      <c r="A51" s="7">
-        <v>15</v>
-      </c>
-      <c r="B51" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="C51" s="23" t="s">
+      <c r="E56" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F56" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="G56" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="H56" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="I56" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57" ht="14.25" spans="1:9">
+      <c r="A57" s="7">
+        <v>15</v>
+      </c>
+      <c r="B57" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="C57" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H57" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="I57" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" ht="14.25" spans="1:9">
+      <c r="A58" s="7">
+        <v>15</v>
+      </c>
+      <c r="B58" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="C58" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F58" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H58" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="I58" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59" ht="14.25" spans="1:9">
+      <c r="A59" s="7">
+        <v>15</v>
+      </c>
+      <c r="B59" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="C59" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F59" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="G59" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="D51" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E51" s="2" t="s">
+      <c r="H59" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="I59" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60" ht="14.25" spans="1:9">
+      <c r="A60" s="7">
+        <v>15</v>
+      </c>
+      <c r="B60" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="C60" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F60" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="G60" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="H60" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="I60" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="61" ht="14.25" spans="1:9">
+      <c r="A61" s="7">
+        <v>15</v>
+      </c>
+      <c r="B61" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="C61" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="D61" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F51" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="G51" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="H51" s="22" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="52" ht="14.25" spans="1:8">
-      <c r="A52" s="7">
-        <v>15</v>
-      </c>
-      <c r="B52" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="C52" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F52" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="G52" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="H52" s="22" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="53" ht="14.25" spans="1:8">
-      <c r="A53" s="7">
-        <v>15</v>
-      </c>
-      <c r="B53" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="C53" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F53" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="G53" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="H53" s="22" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="54" ht="14.25" spans="1:8">
-      <c r="A54" s="7">
-        <v>15</v>
-      </c>
-      <c r="B54" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="C54" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F54" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="G54" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="H54" s="22" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="55" ht="14.25" spans="1:8">
-      <c r="A55" s="7">
-        <v>15</v>
-      </c>
-      <c r="B55" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="C55" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F55" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="G55" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="H55" s="22" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="56" ht="14.25" spans="1:8">
-      <c r="A56" s="7">
-        <v>15</v>
-      </c>
-      <c r="B56" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="C56" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="D56" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F56" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="G56" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="H56" s="22" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="57" ht="14.25" spans="1:8">
-      <c r="A57" s="7">
-        <v>15</v>
-      </c>
-      <c r="B57" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="C57" s="23" t="s">
+      <c r="E61" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G61" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="D57" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F57" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="G57" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="H57" s="22" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="58" ht="14.25" spans="1:8">
-      <c r="A58" s="7">
-        <v>15</v>
-      </c>
-      <c r="B58" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="C58" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F58" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="G58" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H58" s="22" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="59" ht="14.25" spans="1:8">
-      <c r="A59" s="7">
-        <v>15</v>
-      </c>
-      <c r="B59" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="C59" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="D59" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F59" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="G59" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="H59" s="22" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="60" ht="14.25" spans="1:8">
-      <c r="A60" s="7">
-        <v>15</v>
-      </c>
-      <c r="B60" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="C60" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="D60" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F60" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="G60" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="H60" s="22" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="61" ht="14.25" spans="1:8">
-      <c r="A61" s="7">
-        <v>15</v>
-      </c>
-      <c r="B61" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="C61" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="D61" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F61" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G61" s="4" t="s">
-        <v>102</v>
-      </c>
       <c r="H61" s="22" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="62" ht="14.25" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I61" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62" ht="14.25" spans="1:9">
       <c r="A62" s="29">
         <v>16</v>
       </c>
       <c r="B62" s="30" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C62" s="31" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D62" s="32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" s="29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G62" s="33" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H62" s="34" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="63" ht="14.25" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I62" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="63" ht="14.25" spans="1:9">
       <c r="A63" s="15">
         <v>17</v>
       </c>
       <c r="B63" s="35" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C63" s="36" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D63" s="13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" s="15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G63" s="19" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H63" s="18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="64" ht="15.75" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I63" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64" ht="15.75" spans="1:9">
       <c r="A64" s="2">
         <v>18</v>
       </c>
       <c r="B64" s="16" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E64" s="5">
         <v>1</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="65" ht="15.75" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I64" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="65" ht="15.75" spans="1:9">
       <c r="A65" s="2">
         <v>18</v>
       </c>
       <c r="B65" s="16" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E65" s="5">
         <v>1</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="66" ht="15.75" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I65" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="66" ht="15.75" spans="1:9">
       <c r="A66" s="2">
         <v>18</v>
       </c>
       <c r="B66" s="16" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E66" s="5">
         <v>1</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="67" ht="15.75" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I66" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="67" ht="15.75" spans="1:9">
       <c r="A67" s="2">
         <v>18</v>
       </c>
       <c r="B67" s="16" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E67" s="5">
         <v>2</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="68" ht="15.75" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I67" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="68" ht="15.75" spans="1:9">
       <c r="A68" s="2">
         <v>18</v>
       </c>
       <c r="B68" s="16" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E68" s="5">
         <v>1</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="69" ht="15.75" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I68" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="69" ht="15.75" spans="1:9">
       <c r="A69" s="2">
         <v>18</v>
       </c>
       <c r="B69" s="16" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E69" s="5">
         <v>1</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="70" ht="16.5" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I69" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="70" ht="16.5" spans="1:9">
       <c r="A70" s="2">
         <v>18</v>
       </c>
       <c r="B70" s="16" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D70" s="13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E70" s="13">
         <v>1</v>
       </c>
       <c r="F70" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G70" s="14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H70" s="15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="71" ht="15.75" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I70" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="71" ht="15.75" spans="1:9">
       <c r="A71" s="2">
         <v>19</v>
       </c>
       <c r="B71" s="16" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="72" ht="16.5" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I71" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="72" ht="16.5" spans="1:9">
       <c r="A72" s="2">
         <v>19</v>
       </c>
       <c r="B72" s="16" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C72" s="12" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D72" s="13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E72" s="13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F72" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G72" s="14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H72" s="15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="73" ht="16.5" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I72" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="73" ht="16.5" spans="1:9">
       <c r="A73" s="15">
         <v>20</v>
       </c>
       <c r="B73" s="17" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C73" s="12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D73" s="13">
         <v>1</v>
@@ -7266,154 +7485,172 @@
         <v>1</v>
       </c>
       <c r="F73" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G73" s="14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H73" s="15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="74" ht="16.5" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I73" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="74" ht="16.5" spans="1:9">
       <c r="A74" s="15">
         <v>21</v>
       </c>
       <c r="B74" s="17" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C74" s="12" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E74" s="13">
         <v>2</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G74" s="14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H74" s="15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="75" ht="15.75" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I74" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="75" ht="15.75" spans="1:9">
       <c r="A75" s="2">
         <v>22</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E75" s="5">
         <v>1</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G75" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="76" ht="15.75" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I75" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="76" ht="15.75" spans="1:9">
       <c r="A76" s="2">
         <v>22</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E76" s="5">
         <v>1</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="77" ht="16.5" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I76" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="77" ht="16.5" spans="1:9">
       <c r="A77" s="2">
         <v>22</v>
       </c>
       <c r="B77" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C77" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="C77" s="12" t="s">
-        <v>127</v>
-      </c>
       <c r="D77" s="13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E77" s="13">
         <v>1</v>
       </c>
       <c r="F77" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G77" s="14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H77" s="15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="78" ht="16.5" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I77" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="78" ht="16.5" spans="1:9">
       <c r="A78" s="15">
         <v>23</v>
       </c>
       <c r="B78" s="17" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C78" s="12" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D78" s="13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E78" s="13">
         <v>1</v>
       </c>
       <c r="F78" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G78" s="14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H78" s="15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="79" ht="16.5" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I78" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="79" ht="16.5" spans="1:9">
       <c r="A79" s="15">
         <v>24</v>
       </c>
       <c r="B79" s="17" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C79" s="12" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D79" s="13">
         <v>1</v>
@@ -7422,180 +7659,201 @@
         <v>1</v>
       </c>
       <c r="F79" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G79" s="14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H79" s="15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="80" ht="16.5" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I79" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="80" ht="16.5" spans="1:9">
       <c r="A80" s="15">
         <v>25</v>
       </c>
       <c r="B80" s="37" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C80" s="12" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D80" s="13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E80" s="13">
         <v>1</v>
       </c>
       <c r="F80" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G80" s="14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H80" s="15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="81" ht="16.5" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I80" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="81" ht="16.5" spans="1:9">
       <c r="A81" s="15">
         <v>26</v>
       </c>
       <c r="B81" s="17" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C81" s="12" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D81" s="13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E81" s="13">
         <v>1</v>
       </c>
       <c r="F81" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G81" s="14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H81" s="15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I81" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="2">
         <v>27</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H82" s="22" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="83" ht="14.25" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I82" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="83" ht="14.25" spans="1:9">
       <c r="A83" s="2">
         <v>27</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C83" s="38" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D83" s="39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" s="15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" s="19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G83" s="12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H83" s="18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="84" ht="15.75" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I83" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="84" ht="15.75" spans="1:9">
       <c r="A84" s="2">
         <v>28</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E84" s="5">
         <v>1</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G84" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="85" ht="15.75" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I84" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="85" ht="15.75" spans="1:9">
       <c r="A85" s="2">
         <v>28</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G85" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="86" ht="15.75" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I85" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="86" ht="15.75" spans="1:9">
       <c r="A86" s="2">
         <v>28</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D86" s="5">
         <v>1</v>
@@ -7604,24 +7862,27 @@
         <v>1</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G86" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="87" ht="15.75" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I86" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="87" ht="15.75" spans="1:9">
       <c r="A87" s="2">
         <v>28</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D87" s="5">
         <v>1</v>
@@ -7630,50 +7891,56 @@
         <v>1</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G87" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="88" ht="15.75" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I87" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="88" ht="15.75" spans="1:9">
       <c r="A88" s="2">
         <v>28</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E88" s="5">
         <v>2</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G88" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="89" ht="16.5" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I88" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="89" ht="16.5" spans="1:9">
       <c r="A89" s="2">
         <v>28</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C89" s="12" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D89" s="13">
         <v>1</v>
@@ -7682,232 +7949,259 @@
         <v>1</v>
       </c>
       <c r="F89" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G89" s="14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H89" s="15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="90" ht="16.5" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I89" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="90" ht="16.5" spans="1:9">
       <c r="A90" s="15">
         <v>29</v>
       </c>
       <c r="B90" s="37" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C90" s="12" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D90" s="13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E90" s="13">
         <v>1</v>
       </c>
       <c r="F90" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G90" s="14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H90" s="15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="91" ht="15.75" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I90" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="91" ht="15.75" spans="1:9">
       <c r="A91" s="2">
         <v>30</v>
       </c>
       <c r="B91" s="16" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G91" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="92" ht="15.75" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I91" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="92" ht="15.75" spans="1:9">
       <c r="A92" s="2">
         <v>30</v>
       </c>
       <c r="B92" s="16" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G92" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="93" ht="16.5" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I92" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="93" ht="16.5" spans="1:9">
       <c r="A93" s="2">
         <v>30</v>
       </c>
       <c r="B93" s="16" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C93" s="12" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D93" s="13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E93" s="13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F93" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G93" s="14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H93" s="15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="94" ht="16.5" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I93" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="94" ht="16.5" spans="1:9">
       <c r="A94" s="15">
         <v>31</v>
       </c>
       <c r="B94" s="17" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C94" s="12" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D94" s="13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E94" s="13">
         <v>1</v>
       </c>
       <c r="F94" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G94" s="14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H94" s="15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="95" ht="14.25" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I94" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="95" ht="14.25" spans="1:9">
       <c r="A95" s="15">
         <v>32</v>
       </c>
       <c r="B95" s="35" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C95" s="36" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D95" s="13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" s="15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" s="12" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G95" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H95" s="18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="96" ht="15.75" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I95" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="96" ht="15.75" spans="1:9">
       <c r="A96" s="2">
         <v>33</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E96" s="5">
         <v>1</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G96" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="97" ht="16.5" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I96" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="97" ht="16.5" spans="1:9">
       <c r="A97" s="2">
         <v>33</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C97" s="12" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D97" s="13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E97" s="13">
         <v>1</v>
       </c>
       <c r="F97" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G97" s="14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H97" s="15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="98" ht="15.75" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I97" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="98" ht="15.75" spans="1:9">
       <c r="A98" s="2">
         <v>34</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D98" s="5">
         <v>1</v>
@@ -7916,154 +8210,172 @@
         <v>1</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G98" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="99" ht="16.5" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I98" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="99" ht="16.5" spans="1:9">
       <c r="A99" s="2">
         <v>34</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C99" s="12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D99" s="13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E99" s="13">
         <v>2</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G99" s="14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H99" s="15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="100" ht="16.5" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I99" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="100" ht="16.5" spans="1:9">
       <c r="A100" s="15">
         <v>35</v>
       </c>
       <c r="B100" s="17" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C100" s="12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D100" s="13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E100" s="13">
         <v>1</v>
       </c>
       <c r="F100" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G100" s="14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H100" s="15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="101" ht="15.75" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I100" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="101" ht="15.75" spans="1:9">
       <c r="A101" s="2">
         <v>36</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E101" s="5">
         <v>1</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G101" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="102" ht="15.75" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I101" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="102" ht="15.75" spans="1:9">
       <c r="A102" s="2">
         <v>36</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E102" s="5">
         <v>2</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G102" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="103" ht="15.75" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I102" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="103" ht="15.75" spans="1:9">
       <c r="A103" s="2">
         <v>36</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E103" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G103" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="104" ht="15.75" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I103" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="104" ht="15.75" spans="1:9">
       <c r="A104" s="2">
         <v>36</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D104" s="5">
         <v>1</v>
@@ -8072,24 +8384,27 @@
         <v>2</v>
       </c>
       <c r="F104" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G104" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="105" ht="15.75" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I104" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="105" ht="15.75" spans="1:9">
       <c r="A105" s="2">
         <v>36</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D105" s="5">
         <v>1</v>
@@ -8098,24 +8413,27 @@
         <v>2</v>
       </c>
       <c r="F105" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G105" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="106" ht="16.5" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I105" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="106" ht="16.5" spans="1:9">
       <c r="A106" s="2">
         <v>36</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C106" s="12" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D106" s="13">
         <v>1</v>
@@ -8124,50 +8442,56 @@
         <v>2</v>
       </c>
       <c r="F106" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G106" s="14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H106" s="15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="107" ht="16.5" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I106" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="107" ht="16.5" spans="1:9">
       <c r="A107" s="15">
         <v>37</v>
       </c>
       <c r="B107" s="17" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C107" s="12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D107" s="13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E107" s="13">
         <v>1</v>
       </c>
       <c r="F107" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G107" s="14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H107" s="15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="108" ht="16.5" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I107" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="108" ht="16.5" spans="1:9">
       <c r="A108" s="15">
         <v>38</v>
       </c>
       <c r="B108" s="17" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C108" s="12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D108" s="13">
         <v>1</v>
@@ -8176,24 +8500,27 @@
         <v>1</v>
       </c>
       <c r="F108" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G108" s="14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H108" s="15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="109" ht="16.5" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I108" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="109" ht="16.5" spans="1:9">
       <c r="A109" s="15">
         <v>39</v>
       </c>
       <c r="B109" s="17" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C109" s="12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D109" s="13">
         <v>1</v>
@@ -8202,24 +8529,27 @@
         <v>1</v>
       </c>
       <c r="F109" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G109" s="14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H109" s="15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="110" ht="16.5" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I109" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="110" ht="16.5" spans="1:9">
       <c r="A110" s="15">
         <v>40</v>
       </c>
       <c r="B110" s="17" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C110" s="12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D110" s="13">
         <v>1</v>
@@ -8228,24 +8558,27 @@
         <v>1</v>
       </c>
       <c r="F110" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G110" s="14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H110" s="15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="111" ht="16.5" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I110" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="111" ht="16.5" spans="1:9">
       <c r="A111" s="15">
         <v>41</v>
       </c>
       <c r="B111" s="17" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C111" s="12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D111" s="13">
         <v>1</v>
@@ -8254,325 +8587,364 @@
         <v>1</v>
       </c>
       <c r="F111" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G111" s="14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H111" s="15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="112" ht="15.75" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I111" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="112" ht="15.75" spans="1:9">
       <c r="A112" s="2">
         <v>42</v>
       </c>
       <c r="B112" s="16" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E112" s="5">
         <v>2</v>
       </c>
       <c r="F112" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G112" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="113" ht="15.75" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I112" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="113" ht="15.75" spans="1:9">
       <c r="A113" s="2">
         <v>42</v>
       </c>
       <c r="B113" s="16" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D113" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E113" s="5">
         <v>1</v>
       </c>
       <c r="F113" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G113" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="114" ht="16.5" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I113" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="114" ht="16.5" spans="1:9">
       <c r="A114" s="2">
         <v>42</v>
       </c>
       <c r="B114" s="16" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C114" s="12" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D114" s="13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E114" s="13">
         <v>1</v>
       </c>
       <c r="F114" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G114" s="14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H114" s="15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="115" ht="15.75" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I114" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="115" ht="15.75" spans="1:9">
       <c r="A115" s="2">
         <v>43</v>
       </c>
       <c r="B115" s="16" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E115" s="5">
         <v>1</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G115" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H115" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="116" ht="16.5" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I115" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="116" ht="16.5" spans="1:9">
       <c r="A116" s="2">
         <v>43</v>
       </c>
       <c r="B116" s="16" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C116" s="12" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D116" s="13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E116" s="13">
         <v>1</v>
       </c>
       <c r="F116" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G116" s="14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H116" s="15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I116" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="2">
         <v>44</v>
       </c>
       <c r="B117" s="16" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D117" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F117" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G117" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H117" s="22" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I117" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="2">
         <v>44</v>
       </c>
       <c r="B118" s="16" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D118" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F118" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G118" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H118" s="22" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I118" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="2">
         <v>44</v>
       </c>
       <c r="B119" s="16" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D119" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F119" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G119" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H119" s="22" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I119" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="2">
         <v>44</v>
       </c>
       <c r="B120" s="16" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F120" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G120" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H120" s="22" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="121" ht="14.25" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I120" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="121" ht="14.25" spans="1:9">
       <c r="A121" s="2">
         <v>44</v>
       </c>
       <c r="B121" s="16" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C121" s="12" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D121" s="13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E121" s="15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F121" s="12" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G121" s="12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H121" s="18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="122" ht="14.25" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I121" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="122" ht="14.25" spans="1:9">
       <c r="A122" s="15">
         <v>45</v>
       </c>
       <c r="B122" s="17" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C122" s="12" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D122" s="13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E122" s="15">
         <v>3</v>
       </c>
       <c r="F122" s="12" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G122" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H122" s="18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="123" ht="14.25" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I122" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="123" ht="14.25" spans="1:9">
       <c r="A123" s="15">
         <v>46</v>
       </c>
       <c r="B123" s="37" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C123" s="12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D123" s="13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E123" s="15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F123" s="19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G123" s="12" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H123" s="18" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="I123" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/drugs.xlsx
+++ b/drugs.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="183">
   <si>
     <t>序号</t>
   </si>
@@ -54,9 +54,6 @@
   </si>
   <si>
     <t>本指南分级</t>
-  </si>
-  <si>
-    <t>临床意义摘要</t>
   </si>
   <si>
     <r>
@@ -5372,15 +5369,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I123"/>
+  <dimension ref="A1:H123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I123"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:9">
+    <row r="1" ht="14.25" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5405,367 +5402,328 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" ht="14.25" spans="1:9">
+    </row>
+    <row r="2" ht="14.25" spans="1:8">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="6" t="s">
-        <v>14</v>
-      </c>
       <c r="H2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" ht="16.5" spans="1:9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" ht="16.5" spans="1:8">
       <c r="A3" s="7">
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="D3" s="10" t="s">
         <v>17</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>18</v>
       </c>
       <c r="E3" s="10">
         <v>1</v>
       </c>
       <c r="F3" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="11" t="s">
-        <v>20</v>
-      </c>
       <c r="H3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" ht="16.5" spans="1:9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" ht="16.5" spans="1:8">
       <c r="A4" s="7">
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="6" t="s">
-        <v>20</v>
-      </c>
       <c r="H4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" ht="16.5" spans="1:9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" ht="16.5" spans="1:8">
       <c r="A5" s="7">
         <v>2</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="4" t="s">
+      <c r="G5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="6" t="s">
-        <v>20</v>
-      </c>
       <c r="H5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" ht="16.5" spans="1:9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" ht="16.5" spans="1:8">
       <c r="A6" s="7">
         <v>2</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="F6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="4" t="s">
+      <c r="G6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="6" t="s">
-        <v>20</v>
-      </c>
       <c r="H6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" ht="16.5" spans="1:9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" ht="16.5" spans="1:8">
       <c r="A7" s="7">
         <v>2</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="4" t="s">
+      <c r="G7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="6" t="s">
-        <v>20</v>
-      </c>
       <c r="H7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" ht="16.5" spans="1:9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" ht="16.5" spans="1:8">
       <c r="A8" s="7">
         <v>2</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E8" s="13">
         <v>1</v>
       </c>
       <c r="F8" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="14" t="s">
-        <v>20</v>
-      </c>
       <c r="H8" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" ht="15.75" spans="1:9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" ht="15.75" spans="1:8">
       <c r="A9" s="2">
         <v>3</v>
       </c>
       <c r="B9" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="D9" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>30</v>
       </c>
       <c r="E9" s="5">
         <v>1</v>
       </c>
       <c r="F9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="6" t="s">
-        <v>20</v>
-      </c>
       <c r="H9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" ht="15.75" spans="1:9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" ht="15.75" spans="1:8">
       <c r="A10" s="2">
         <v>3</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E10" s="5">
         <v>1</v>
       </c>
       <c r="F10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="6" t="s">
-        <v>20</v>
-      </c>
       <c r="H10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" ht="15.75" spans="1:9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" ht="15.75" spans="1:8">
       <c r="A11" s="2">
         <v>3</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E11" s="5">
         <v>1</v>
       </c>
       <c r="F11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G11" s="6" t="s">
-        <v>20</v>
-      </c>
       <c r="H11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" ht="15.75" spans="1:9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" ht="15.75" spans="1:8">
       <c r="A12" s="2">
         <v>3</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E12" s="5">
         <v>1</v>
       </c>
       <c r="F12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G12" s="6" t="s">
-        <v>20</v>
-      </c>
       <c r="H12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" ht="16.5" spans="1:9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" ht="16.5" spans="1:8">
       <c r="A13" s="2">
         <v>3</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E13" s="13">
         <v>1</v>
       </c>
       <c r="F13" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G13" s="14" t="s">
-        <v>20</v>
-      </c>
       <c r="H13" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="I13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" ht="16.5" spans="1:9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" ht="16.5" spans="1:8">
       <c r="A14" s="15">
         <v>4</v>
       </c>
       <c r="B14" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="12" t="s">
         <v>35</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>36</v>
       </c>
       <c r="D14" s="13">
         <v>1</v>
@@ -5774,27 +5732,24 @@
         <v>1</v>
       </c>
       <c r="F14" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G14" s="14" t="s">
-        <v>20</v>
-      </c>
       <c r="H14" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="I14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" ht="16.5" spans="1:9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" ht="16.5" spans="1:8">
       <c r="A15" s="15">
         <v>5</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D15" s="13">
         <v>1</v>
@@ -5803,143 +5758,128 @@
         <v>1</v>
       </c>
       <c r="F15" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G15" s="14" t="s">
-        <v>20</v>
-      </c>
       <c r="H15" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="I15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" ht="15.75" spans="1:9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" ht="15.75" spans="1:8">
       <c r="A16" s="2">
         <v>6</v>
       </c>
       <c r="B16" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>39</v>
-      </c>
       <c r="D16" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E16" s="5">
         <v>1</v>
       </c>
       <c r="F16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G16" s="6" t="s">
-        <v>20</v>
-      </c>
       <c r="H16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" ht="15.75" spans="1:9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" ht="15.75" spans="1:8">
       <c r="A17" s="2">
         <v>6</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E17" s="5">
         <v>1</v>
       </c>
       <c r="F17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G17" s="6" t="s">
-        <v>20</v>
-      </c>
       <c r="H17" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" ht="16.5" spans="1:9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" ht="16.5" spans="1:8">
       <c r="A18" s="2">
         <v>6</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C18" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="E18" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E18" s="13" t="s">
-        <v>43</v>
-      </c>
       <c r="F18" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G18" s="14" t="s">
-        <v>20</v>
-      </c>
       <c r="H18" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="I18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" ht="15.75" spans="1:9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" ht="15.75" spans="1:8">
       <c r="A19" s="2">
         <v>7</v>
       </c>
       <c r="B19" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>45</v>
-      </c>
       <c r="D19" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E19" s="5">
         <v>1</v>
       </c>
       <c r="F19" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G19" s="6" t="s">
-        <v>20</v>
-      </c>
       <c r="H19" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" ht="15.75" spans="1:9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" ht="15.75" spans="1:8">
       <c r="A20" s="2">
         <v>7</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D20" s="5">
         <v>1</v>
@@ -5948,56 +5888,50 @@
         <v>1</v>
       </c>
       <c r="F20" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G20" s="6" t="s">
-        <v>20</v>
-      </c>
       <c r="H20" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I20" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" ht="16.5" spans="1:9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" ht="16.5" spans="1:8">
       <c r="A21" s="2">
         <v>7</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C21" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="13" t="s">
-        <v>47</v>
-      </c>
       <c r="E21" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F21" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G21" s="14" t="s">
-        <v>20</v>
-      </c>
       <c r="H21" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="I21" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" ht="16.5" spans="1:9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" ht="16.5" spans="1:8">
       <c r="A22" s="15">
         <v>8</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D22" s="13">
         <v>1</v>
@@ -6006,27 +5940,24 @@
         <v>1</v>
       </c>
       <c r="F22" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G22" s="14" t="s">
-        <v>20</v>
-      </c>
       <c r="H22" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="I22" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" ht="16.5" spans="1:9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" ht="16.5" spans="1:8">
       <c r="A23" s="15">
         <v>9</v>
       </c>
       <c r="B23" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="12" t="s">
         <v>49</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>50</v>
       </c>
       <c r="D23" s="13">
         <v>1</v>
@@ -6035,375 +5966,336 @@
         <v>1</v>
       </c>
       <c r="F23" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G23" s="14" t="s">
-        <v>20</v>
-      </c>
       <c r="H23" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="I23" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" ht="14.25" spans="1:9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" ht="14.25" spans="1:8">
       <c r="A24" s="15">
         <v>10</v>
       </c>
       <c r="B24" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="D24" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G24" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="D24" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F24" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G24" s="13" t="s">
-        <v>53</v>
-      </c>
       <c r="H24" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="I24" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" ht="14.25" spans="1:9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" ht="14.25" spans="1:8">
       <c r="A25" s="15">
         <v>11</v>
       </c>
       <c r="B25" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="D25" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="D25" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F25" s="19" t="s">
+      <c r="G25" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="G25" s="12" t="s">
-        <v>57</v>
-      </c>
       <c r="H25" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="I25" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="2">
         <v>12</v>
       </c>
       <c r="B26" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="C26" s="21" t="s">
+      <c r="D26" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D26" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>60</v>
-      </c>
       <c r="H26" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="I26" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="2">
         <v>12</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C27" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G27" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D27" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>62</v>
-      </c>
       <c r="H27" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="I27" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="2">
         <v>12</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C28" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G28" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D28" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>64</v>
-      </c>
       <c r="H28" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="I28" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="2">
         <v>12</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C29" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="D29" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="E29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G29" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="E29" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="G29" s="4" t="s">
+      <c r="H29" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="H29" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="I29" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="2">
         <v>12</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C30" s="23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F30" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G30" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H30" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="I30" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="2">
         <v>12</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D31" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E31" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="F31" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H31" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="I31" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="2">
         <v>12</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C32" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D32" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>72</v>
-      </c>
       <c r="G32" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H32" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="I32" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="2">
         <v>12</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D33" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E33" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="F33" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G33" s="23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H33" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="I33" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="2">
         <v>12</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D34" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E34" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="F34" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G34" s="23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H34" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="I34" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="35" ht="14.25" spans="1:9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" ht="14.25" spans="1:8">
       <c r="A35" s="2">
         <v>12</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C35" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F35" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="G35" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="D35" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F35" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="G35" s="23" t="s">
-        <v>76</v>
-      </c>
       <c r="H35" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="I35" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="36" ht="15.75" spans="1:9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" ht="15.75" spans="1:8">
       <c r="A36" s="7">
         <v>13</v>
       </c>
       <c r="B36" s="24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D36" s="10">
         <v>1</v>
@@ -6412,1071 +6304,960 @@
         <v>1</v>
       </c>
       <c r="F36" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G36" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="G36" s="11" t="s">
-        <v>20</v>
-      </c>
       <c r="H36" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I36" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="2">
+        <v>14</v>
+      </c>
+      <c r="B37" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C37" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="G37" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="H37" s="22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="2">
+        <v>14</v>
+      </c>
+      <c r="B38" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F38" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="G38" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="H38" s="22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="2">
+        <v>14</v>
+      </c>
+      <c r="B39" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C39" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G39" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="A37" s="2">
-        <v>14</v>
-      </c>
-      <c r="B37" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="C37" s="23" t="s">
+      <c r="H39" s="22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="2">
+        <v>14</v>
+      </c>
+      <c r="B40" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C40" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F40" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="H40" s="22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="2">
+        <v>14</v>
+      </c>
+      <c r="B41" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C41" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G41" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="H41" s="22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="2">
+        <v>14</v>
+      </c>
+      <c r="B42" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C42" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="F42" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F37" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="G37" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="H37" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="I37" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
-      <c r="A38" s="2">
-        <v>14</v>
-      </c>
-      <c r="B38" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="C38" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="D38" s="5" t="s">
+      <c r="G42" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="H42" s="22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="2">
+        <v>14</v>
+      </c>
+      <c r="B43" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C43" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="F43" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="G43" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="H43" s="22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="2">
+        <v>14</v>
+      </c>
+      <c r="B44" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C44" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F44" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="H44" s="22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="2">
+        <v>14</v>
+      </c>
+      <c r="B45" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C45" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F45" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="G45" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="H45" s="22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" ht="14.25" spans="1:8">
+      <c r="A46" s="2">
+        <v>14</v>
+      </c>
+      <c r="B46" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C46" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F46" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F38" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="G38" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="H38" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="I38" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
-      <c r="A39" s="2">
-        <v>14</v>
-      </c>
-      <c r="B39" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="C39" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H39" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="I39" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
-      <c r="A40" s="2">
-        <v>14</v>
-      </c>
-      <c r="B40" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="C40" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F40" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="H40" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="I40" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
-      <c r="A41" s="2">
-        <v>14</v>
-      </c>
-      <c r="B41" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="C41" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G41" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="H41" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="I41" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
-      <c r="A42" s="2">
-        <v>14</v>
-      </c>
-      <c r="B42" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="C42" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G42" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="H42" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="I42" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
-      <c r="A43" s="2">
-        <v>14</v>
-      </c>
-      <c r="B43" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="C43" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F43" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="G43" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="H43" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="I43" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
-      <c r="A44" s="2">
-        <v>14</v>
-      </c>
-      <c r="B44" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="C44" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F44" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="G44" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="H44" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="I44" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
-      <c r="A45" s="2">
-        <v>14</v>
-      </c>
-      <c r="B45" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="C45" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F45" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="G45" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="H45" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="I45" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="46" ht="14.25" spans="1:9">
-      <c r="A46" s="2">
-        <v>14</v>
-      </c>
-      <c r="B46" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="C46" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F46" s="5" t="s">
-        <v>13</v>
-      </c>
       <c r="G46" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H46" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="I46" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="47" ht="14.25" spans="1:9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" ht="14.25" spans="1:8">
       <c r="A47" s="7">
         <v>15</v>
       </c>
       <c r="B47" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="C47" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="C47" s="27" t="s">
-        <v>92</v>
-      </c>
       <c r="D47" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E47" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E47" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="F47" s="27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G47" s="27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H47" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="I47" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="48" ht="14.25" spans="1:9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" ht="14.25" spans="1:8">
       <c r="A48" s="7">
         <v>15</v>
       </c>
       <c r="B48" s="26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C48" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F48" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="G48" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="D48" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F48" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="G48" s="4" t="s">
-        <v>94</v>
-      </c>
       <c r="H48" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="I48" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="49" ht="14.25" spans="1:9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" ht="14.25" spans="1:8">
       <c r="A49" s="7">
         <v>15</v>
       </c>
       <c r="B49" s="26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F49" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G49" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H49" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="I49" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="50" ht="14.25" spans="1:9">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="50" ht="14.25" spans="1:8">
       <c r="A50" s="7">
         <v>15</v>
       </c>
       <c r="B50" s="26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C50" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F50" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="G50" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="D50" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F50" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="G50" s="4" t="s">
-        <v>97</v>
-      </c>
       <c r="H50" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="I50" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="51" ht="14.25" spans="1:9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" ht="14.25" spans="1:8">
       <c r="A51" s="7">
         <v>15</v>
       </c>
       <c r="B51" s="26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C51" s="23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F51" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G51" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H51" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="I51" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="52" ht="14.25" spans="1:9">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="52" ht="14.25" spans="1:8">
       <c r="A52" s="7">
         <v>15</v>
       </c>
       <c r="B52" s="26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C52" s="23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F52" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G52" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H52" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="I52" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="53" ht="14.25" spans="1:9">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="53" ht="14.25" spans="1:8">
       <c r="A53" s="7">
         <v>15</v>
       </c>
       <c r="B53" s="26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C53" s="23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F53" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H53" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="I53" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="54" ht="14.25" spans="1:9">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="54" ht="14.25" spans="1:8">
       <c r="A54" s="7">
         <v>15</v>
       </c>
       <c r="B54" s="26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C54" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F54" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G54" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H54" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="I54" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="55" ht="14.25" spans="1:9">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="55" ht="14.25" spans="1:8">
       <c r="A55" s="7">
         <v>15</v>
       </c>
       <c r="B55" s="26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C55" s="23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D55" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E55" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="F55" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G55" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H55" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="I55" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="56" ht="14.25" spans="1:9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56" ht="14.25" spans="1:8">
       <c r="A56" s="7">
         <v>15</v>
       </c>
       <c r="B56" s="26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C56" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F56" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="G56" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="D56" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F56" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="G56" s="23" t="s">
-        <v>103</v>
-      </c>
       <c r="H56" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="I56" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="57" ht="14.25" spans="1:9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57" ht="14.25" spans="1:8">
       <c r="A57" s="7">
         <v>15</v>
       </c>
       <c r="B57" s="26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C57" s="23" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D57" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E57" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="F57" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H57" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="I57" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="58" ht="14.25" spans="1:9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="58" ht="14.25" spans="1:8">
       <c r="A58" s="7">
         <v>15</v>
       </c>
       <c r="B58" s="26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C58" s="23" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D58" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E58" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E58" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="F58" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H58" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="I58" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="59" ht="14.25" spans="1:9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" ht="14.25" spans="1:8">
       <c r="A59" s="7">
         <v>15</v>
       </c>
       <c r="B59" s="26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C59" s="23" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D59" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E59" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="F59" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H59" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="I59" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="60" ht="14.25" spans="1:9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="60" ht="14.25" spans="1:8">
       <c r="A60" s="7">
         <v>15</v>
       </c>
       <c r="B60" s="26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C60" s="23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F60" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G60" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H60" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="I60" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="61" ht="14.25" spans="1:9">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="61" ht="14.25" spans="1:8">
       <c r="A61" s="7">
         <v>15</v>
       </c>
       <c r="B61" s="26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C61" s="23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D61" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E61" s="2" t="s">
+      <c r="F61" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F61" s="5" t="s">
-        <v>13</v>
-      </c>
       <c r="G61" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H61" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="I61" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="62" ht="14.25" spans="1:9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="62" ht="14.25" spans="1:8">
       <c r="A62" s="29">
         <v>16</v>
       </c>
       <c r="B62" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="C62" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="C62" s="31" t="s">
+      <c r="D62" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E62" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G62" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="D62" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="E62" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="F62" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G62" s="33" t="s">
-        <v>111</v>
-      </c>
       <c r="H62" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="I62" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="63" ht="14.25" spans="1:9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="63" ht="14.25" spans="1:8">
       <c r="A63" s="15">
         <v>17</v>
       </c>
       <c r="B63" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="C63" s="36" t="s">
         <v>112</v>
       </c>
-      <c r="C63" s="36" t="s">
+      <c r="D63" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E63" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G63" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="D63" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E63" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F63" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G63" s="19" t="s">
-        <v>114</v>
-      </c>
       <c r="H63" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="I63" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="64" ht="15.75" spans="1:9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="64" ht="15.75" spans="1:8">
       <c r="A64" s="2">
         <v>18</v>
       </c>
       <c r="B64" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="C64" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C64" s="4" t="s">
-        <v>116</v>
-      </c>
       <c r="D64" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E64" s="5">
         <v>1</v>
       </c>
       <c r="F64" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G64" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G64" s="6" t="s">
-        <v>20</v>
-      </c>
       <c r="H64" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I64" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="65" ht="15.75" spans="1:9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65" ht="15.75" spans="1:8">
       <c r="A65" s="2">
         <v>18</v>
       </c>
       <c r="B65" s="16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E65" s="5">
         <v>1</v>
       </c>
       <c r="F65" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G65" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G65" s="6" t="s">
-        <v>20</v>
-      </c>
       <c r="H65" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I65" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="66" ht="15.75" spans="1:9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66" ht="15.75" spans="1:8">
       <c r="A66" s="2">
         <v>18</v>
       </c>
       <c r="B66" s="16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E66" s="5">
         <v>1</v>
       </c>
       <c r="F66" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G66" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G66" s="6" t="s">
-        <v>20</v>
-      </c>
       <c r="H66" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I66" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="67" ht="15.75" spans="1:9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="67" ht="15.75" spans="1:8">
       <c r="A67" s="2">
         <v>18</v>
       </c>
       <c r="B67" s="16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E67" s="5">
         <v>2</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I67" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="68" ht="15.75" spans="1:9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="68" ht="15.75" spans="1:8">
       <c r="A68" s="2">
         <v>18</v>
       </c>
       <c r="B68" s="16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E68" s="5">
         <v>1</v>
       </c>
       <c r="F68" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G68" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G68" s="6" t="s">
-        <v>20</v>
-      </c>
       <c r="H68" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I68" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="69" ht="15.75" spans="1:9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="69" ht="15.75" spans="1:8">
       <c r="A69" s="2">
         <v>18</v>
       </c>
       <c r="B69" s="16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E69" s="5">
         <v>1</v>
       </c>
       <c r="F69" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G69" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G69" s="6" t="s">
-        <v>20</v>
-      </c>
       <c r="H69" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I69" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="70" ht="16.5" spans="1:9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70" ht="16.5" spans="1:8">
       <c r="A70" s="2">
         <v>18</v>
       </c>
       <c r="B70" s="16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D70" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E70" s="13">
         <v>1</v>
       </c>
       <c r="F70" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G70" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G70" s="14" t="s">
-        <v>20</v>
-      </c>
       <c r="H70" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="I70" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="71" ht="15.75" spans="1:9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71" ht="15.75" spans="1:8">
       <c r="A71" s="2">
         <v>19</v>
       </c>
       <c r="B71" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="C71" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="C71" s="4" t="s">
-        <v>124</v>
-      </c>
       <c r="D71" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F71" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E71" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F71" s="4" t="s">
+      <c r="G71" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G71" s="6" t="s">
-        <v>20</v>
-      </c>
       <c r="H71" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I71" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="72" ht="16.5" spans="1:9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="72" ht="16.5" spans="1:8">
       <c r="A72" s="2">
         <v>19</v>
       </c>
       <c r="B72" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C72" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D72" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E72" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F72" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G72" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G72" s="14" t="s">
-        <v>20</v>
-      </c>
       <c r="H72" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="I72" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="73" ht="16.5" spans="1:9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="73" ht="16.5" spans="1:8">
       <c r="A73" s="15">
         <v>20</v>
       </c>
       <c r="B73" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C73" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D73" s="13">
         <v>1</v>
@@ -7485,172 +7266,154 @@
         <v>1</v>
       </c>
       <c r="F73" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G73" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G73" s="14" t="s">
-        <v>20</v>
-      </c>
       <c r="H73" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="I73" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="74" ht="16.5" spans="1:9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="74" ht="16.5" spans="1:8">
       <c r="A74" s="15">
         <v>21</v>
       </c>
       <c r="B74" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="C74" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="C74" s="12" t="s">
-        <v>128</v>
-      </c>
       <c r="D74" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E74" s="13">
         <v>2</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G74" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H74" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="I74" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="75" ht="15.75" spans="1:9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="75" ht="15.75" spans="1:8">
       <c r="A75" s="2">
         <v>22</v>
       </c>
       <c r="B75" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C75" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C75" s="4" t="s">
-        <v>130</v>
-      </c>
       <c r="D75" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E75" s="5">
         <v>1</v>
       </c>
       <c r="F75" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G75" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G75" s="6" t="s">
-        <v>20</v>
-      </c>
       <c r="H75" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I75" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="76" ht="15.75" spans="1:9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="76" ht="15.75" spans="1:8">
       <c r="A76" s="2">
         <v>22</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E76" s="5">
         <v>1</v>
       </c>
       <c r="F76" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G76" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G76" s="6" t="s">
-        <v>20</v>
-      </c>
       <c r="H76" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I76" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="77" ht="16.5" spans="1:9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="77" ht="16.5" spans="1:8">
       <c r="A77" s="2">
         <v>22</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C77" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D77" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E77" s="13">
         <v>1</v>
       </c>
       <c r="F77" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G77" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G77" s="14" t="s">
-        <v>20</v>
-      </c>
       <c r="H77" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="I77" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="78" ht="16.5" spans="1:9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="78" ht="16.5" spans="1:8">
       <c r="A78" s="15">
         <v>23</v>
       </c>
       <c r="B78" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C78" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D78" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E78" s="13">
         <v>1</v>
       </c>
       <c r="F78" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G78" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G78" s="14" t="s">
-        <v>20</v>
-      </c>
       <c r="H78" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="I78" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="79" ht="16.5" spans="1:9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="79" ht="16.5" spans="1:8">
       <c r="A79" s="15">
         <v>24</v>
       </c>
       <c r="B79" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="C79" s="12" t="s">
         <v>133</v>
-      </c>
-      <c r="C79" s="12" t="s">
-        <v>134</v>
       </c>
       <c r="D79" s="13">
         <v>1</v>
@@ -7659,201 +7422,180 @@
         <v>1</v>
       </c>
       <c r="F79" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G79" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G79" s="14" t="s">
-        <v>20</v>
-      </c>
       <c r="H79" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="I79" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="80" ht="16.5" spans="1:9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="80" ht="16.5" spans="1:8">
       <c r="A80" s="15">
         <v>25</v>
       </c>
       <c r="B80" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="C80" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="C80" s="12" t="s">
-        <v>136</v>
-      </c>
       <c r="D80" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E80" s="13">
         <v>1</v>
       </c>
       <c r="F80" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G80" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G80" s="14" t="s">
-        <v>20</v>
-      </c>
       <c r="H80" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="I80" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="81" ht="16.5" spans="1:9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="81" ht="16.5" spans="1:8">
       <c r="A81" s="15">
         <v>26</v>
       </c>
       <c r="B81" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="C81" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="C81" s="12" t="s">
-        <v>138</v>
-      </c>
       <c r="D81" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E81" s="13">
         <v>1</v>
       </c>
       <c r="F81" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G81" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G81" s="14" t="s">
-        <v>20</v>
-      </c>
       <c r="H81" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="I81" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="2">
         <v>27</v>
       </c>
       <c r="B82" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C82" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C82" s="4" t="s">
-        <v>140</v>
-      </c>
       <c r="D82" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E82" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E82" s="2" t="s">
+      <c r="F82" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F82" s="5" t="s">
-        <v>13</v>
-      </c>
       <c r="G82" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H82" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="I82" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="83" ht="14.25" spans="1:9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="83" ht="14.25" spans="1:8">
       <c r="A83" s="2">
         <v>27</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C83" s="38" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D83" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="E83" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E83" s="15" t="s">
-        <v>12</v>
-      </c>
       <c r="F83" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="G83" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="G83" s="12" t="s">
-        <v>57</v>
-      </c>
       <c r="H83" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="I83" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="84" ht="15.75" spans="1:9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="84" ht="15.75" spans="1:8">
       <c r="A84" s="2">
         <v>28</v>
       </c>
       <c r="B84" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C84" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="C84" s="4" t="s">
-        <v>143</v>
-      </c>
       <c r="D84" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E84" s="5">
         <v>1</v>
       </c>
       <c r="F84" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G84" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G84" s="6" t="s">
-        <v>20</v>
-      </c>
       <c r="H84" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I84" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="85" ht="15.75" spans="1:9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="85" ht="15.75" spans="1:8">
       <c r="A85" s="2">
         <v>28</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F85" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G85" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G85" s="6" t="s">
-        <v>20</v>
-      </c>
       <c r="H85" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I85" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="86" ht="15.75" spans="1:9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="86" ht="15.75" spans="1:8">
       <c r="A86" s="2">
         <v>28</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D86" s="5">
         <v>1</v>
@@ -7862,27 +7604,24 @@
         <v>1</v>
       </c>
       <c r="F86" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G86" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G86" s="6" t="s">
-        <v>20</v>
-      </c>
       <c r="H86" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I86" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="87" ht="15.75" spans="1:9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="87" ht="15.75" spans="1:8">
       <c r="A87" s="2">
         <v>28</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D87" s="5">
         <v>1</v>
@@ -7891,56 +7630,50 @@
         <v>1</v>
       </c>
       <c r="F87" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G87" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G87" s="6" t="s">
-        <v>20</v>
-      </c>
       <c r="H87" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I87" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="88" ht="15.75" spans="1:9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="88" ht="15.75" spans="1:8">
       <c r="A88" s="2">
         <v>28</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E88" s="5">
         <v>2</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G88" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I88" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="89" ht="16.5" spans="1:9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="89" ht="16.5" spans="1:8">
       <c r="A89" s="2">
         <v>28</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C89" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D89" s="13">
         <v>1</v>
@@ -7949,259 +7682,232 @@
         <v>1</v>
       </c>
       <c r="F89" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G89" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G89" s="14" t="s">
-        <v>20</v>
-      </c>
       <c r="H89" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="I89" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="90" ht="16.5" spans="1:9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="90" ht="16.5" spans="1:8">
       <c r="A90" s="15">
         <v>29</v>
       </c>
       <c r="B90" s="37" t="s">
+        <v>147</v>
+      </c>
+      <c r="C90" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="C90" s="12" t="s">
-        <v>149</v>
-      </c>
       <c r="D90" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E90" s="13">
         <v>1</v>
       </c>
       <c r="F90" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G90" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G90" s="14" t="s">
-        <v>20</v>
-      </c>
       <c r="H90" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="I90" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="91" ht="15.75" spans="1:9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="91" ht="15.75" spans="1:8">
       <c r="A91" s="2">
         <v>30</v>
       </c>
       <c r="B91" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="C91" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="C91" s="4" t="s">
-        <v>151</v>
-      </c>
       <c r="D91" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E91" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F91" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E91" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F91" s="4" t="s">
+      <c r="G91" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G91" s="6" t="s">
-        <v>20</v>
-      </c>
       <c r="H91" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I91" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="92" ht="15.75" spans="1:9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="92" ht="15.75" spans="1:8">
       <c r="A92" s="2">
         <v>30</v>
       </c>
       <c r="B92" s="16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D92" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E92" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F92" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E92" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F92" s="4" t="s">
+      <c r="G92" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G92" s="6" t="s">
-        <v>20</v>
-      </c>
       <c r="H92" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I92" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="93" ht="16.5" spans="1:9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="93" ht="16.5" spans="1:8">
       <c r="A93" s="2">
         <v>30</v>
       </c>
       <c r="B93" s="16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C93" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D93" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E93" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="F93" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E93" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="F93" s="12" t="s">
+      <c r="G93" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G93" s="14" t="s">
-        <v>20</v>
-      </c>
       <c r="H93" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="I93" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="94" ht="16.5" spans="1:9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="94" ht="16.5" spans="1:8">
       <c r="A94" s="15">
         <v>31</v>
       </c>
       <c r="B94" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="C94" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="C94" s="12" t="s">
-        <v>154</v>
-      </c>
       <c r="D94" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E94" s="13">
         <v>1</v>
       </c>
       <c r="F94" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G94" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G94" s="14" t="s">
-        <v>20</v>
-      </c>
       <c r="H94" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="I94" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="95" ht="14.25" spans="1:9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="95" ht="14.25" spans="1:8">
       <c r="A95" s="15">
         <v>32</v>
       </c>
       <c r="B95" s="35" t="s">
+        <v>154</v>
+      </c>
+      <c r="C95" s="36" t="s">
         <v>155</v>
       </c>
-      <c r="C95" s="36" t="s">
+      <c r="D95" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E95" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F95" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="D95" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E95" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F95" s="12" t="s">
-        <v>157</v>
-      </c>
       <c r="G95" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H95" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="I95" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="96" ht="15.75" spans="1:9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="96" ht="15.75" spans="1:8">
       <c r="A96" s="2">
         <v>33</v>
       </c>
       <c r="B96" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C96" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="C96" s="4" t="s">
-        <v>159</v>
-      </c>
       <c r="D96" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E96" s="5">
         <v>1</v>
       </c>
       <c r="F96" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G96" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G96" s="6" t="s">
-        <v>20</v>
-      </c>
       <c r="H96" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I96" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="97" ht="16.5" spans="1:9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="97" ht="16.5" spans="1:8">
       <c r="A97" s="2">
         <v>33</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C97" s="12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D97" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E97" s="13">
         <v>1</v>
       </c>
       <c r="F97" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G97" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G97" s="14" t="s">
-        <v>20</v>
-      </c>
       <c r="H97" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="I97" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="98" ht="15.75" spans="1:9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="98" ht="15.75" spans="1:8">
       <c r="A98" s="2">
         <v>34</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D98" s="5">
         <v>1</v>
@@ -8210,172 +7916,154 @@
         <v>1</v>
       </c>
       <c r="F98" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G98" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G98" s="6" t="s">
-        <v>20</v>
-      </c>
       <c r="H98" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I98" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="99" ht="16.5" spans="1:9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="99" ht="16.5" spans="1:8">
       <c r="A99" s="2">
         <v>34</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C99" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D99" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E99" s="13">
         <v>2</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G99" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H99" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="I99" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="100" ht="16.5" spans="1:9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="100" ht="16.5" spans="1:8">
       <c r="A100" s="15">
         <v>35</v>
       </c>
       <c r="B100" s="17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C100" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D100" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E100" s="13">
         <v>1</v>
       </c>
       <c r="F100" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G100" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G100" s="14" t="s">
-        <v>20</v>
-      </c>
       <c r="H100" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="I100" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="101" ht="15.75" spans="1:9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="101" ht="15.75" spans="1:8">
       <c r="A101" s="2">
         <v>36</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E101" s="5">
         <v>1</v>
       </c>
       <c r="F101" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G101" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G101" s="6" t="s">
-        <v>20</v>
-      </c>
       <c r="H101" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I101" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="102" ht="15.75" spans="1:9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="102" ht="15.75" spans="1:8">
       <c r="A102" s="2">
         <v>36</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E102" s="5">
         <v>2</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G102" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I102" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="103" ht="15.75" spans="1:9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="103" ht="15.75" spans="1:8">
       <c r="A103" s="2">
         <v>36</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E103" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F103" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G103" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G103" s="6" t="s">
-        <v>20</v>
-      </c>
       <c r="H103" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I103" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="104" ht="15.75" spans="1:9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="104" ht="15.75" spans="1:8">
       <c r="A104" s="2">
         <v>36</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D104" s="5">
         <v>1</v>
@@ -8384,27 +8072,24 @@
         <v>2</v>
       </c>
       <c r="F104" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G104" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I104" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="105" ht="15.75" spans="1:9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="105" ht="15.75" spans="1:8">
       <c r="A105" s="2">
         <v>36</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D105" s="5">
         <v>1</v>
@@ -8413,27 +8098,24 @@
         <v>2</v>
       </c>
       <c r="F105" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G105" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I105" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="106" ht="16.5" spans="1:9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="106" ht="16.5" spans="1:8">
       <c r="A106" s="2">
         <v>36</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C106" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D106" s="13">
         <v>1</v>
@@ -8442,56 +8124,50 @@
         <v>2</v>
       </c>
       <c r="F106" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G106" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H106" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="I106" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="107" ht="16.5" spans="1:9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="107" ht="16.5" spans="1:8">
       <c r="A107" s="15">
         <v>37</v>
       </c>
       <c r="B107" s="17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C107" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D107" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E107" s="13">
         <v>1</v>
       </c>
       <c r="F107" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G107" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G107" s="14" t="s">
-        <v>20</v>
-      </c>
       <c r="H107" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="I107" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="108" ht="16.5" spans="1:9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="108" ht="16.5" spans="1:8">
       <c r="A108" s="15">
         <v>38</v>
       </c>
       <c r="B108" s="17" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C108" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D108" s="13">
         <v>1</v>
@@ -8500,27 +8176,24 @@
         <v>1</v>
       </c>
       <c r="F108" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G108" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G108" s="14" t="s">
-        <v>20</v>
-      </c>
       <c r="H108" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="I108" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="109" ht="16.5" spans="1:9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="109" ht="16.5" spans="1:8">
       <c r="A109" s="15">
         <v>39</v>
       </c>
       <c r="B109" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C109" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D109" s="13">
         <v>1</v>
@@ -8529,27 +8202,24 @@
         <v>1</v>
       </c>
       <c r="F109" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G109" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G109" s="14" t="s">
-        <v>20</v>
-      </c>
       <c r="H109" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="I109" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="110" ht="16.5" spans="1:9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="110" ht="16.5" spans="1:8">
       <c r="A110" s="15">
         <v>40</v>
       </c>
       <c r="B110" s="17" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C110" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D110" s="13">
         <v>1</v>
@@ -8558,27 +8228,24 @@
         <v>1</v>
       </c>
       <c r="F110" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G110" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G110" s="14" t="s">
-        <v>20</v>
-      </c>
       <c r="H110" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="I110" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="111" ht="16.5" spans="1:9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="111" ht="16.5" spans="1:8">
       <c r="A111" s="15">
         <v>41</v>
       </c>
       <c r="B111" s="17" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C111" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D111" s="13">
         <v>1</v>
@@ -8587,364 +8254,325 @@
         <v>1</v>
       </c>
       <c r="F111" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G111" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G111" s="14" t="s">
-        <v>20</v>
-      </c>
       <c r="H111" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="I111" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="112" ht="15.75" spans="1:9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="112" ht="15.75" spans="1:8">
       <c r="A112" s="2">
         <v>42</v>
       </c>
       <c r="B112" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="C112" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="C112" s="4" t="s">
-        <v>170</v>
-      </c>
       <c r="D112" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E112" s="5">
         <v>2</v>
       </c>
       <c r="F112" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G112" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I112" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="113" ht="15.75" spans="1:9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="113" ht="15.75" spans="1:8">
       <c r="A113" s="2">
         <v>42</v>
       </c>
       <c r="B113" s="16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D113" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E113" s="5">
         <v>1</v>
       </c>
       <c r="F113" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G113" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G113" s="6" t="s">
-        <v>20</v>
-      </c>
       <c r="H113" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I113" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="114" ht="16.5" spans="1:9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="114" ht="16.5" spans="1:8">
       <c r="A114" s="2">
         <v>42</v>
       </c>
       <c r="B114" s="16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C114" s="12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D114" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E114" s="13">
         <v>1</v>
       </c>
       <c r="F114" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G114" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G114" s="14" t="s">
-        <v>20</v>
-      </c>
       <c r="H114" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="I114" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="115" ht="15.75" spans="1:9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="115" ht="15.75" spans="1:8">
       <c r="A115" s="2">
         <v>43</v>
       </c>
       <c r="B115" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E115" s="5">
         <v>1</v>
       </c>
       <c r="F115" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G115" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G115" s="6" t="s">
-        <v>20</v>
-      </c>
       <c r="H115" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I115" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="116" ht="16.5" spans="1:9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="116" ht="16.5" spans="1:8">
       <c r="A116" s="2">
         <v>43</v>
       </c>
       <c r="B116" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="C116" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="C116" s="12" t="s">
-        <v>174</v>
-      </c>
       <c r="D116" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E116" s="13">
         <v>1</v>
       </c>
       <c r="F116" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G116" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G116" s="14" t="s">
-        <v>20</v>
-      </c>
       <c r="H116" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="I116" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
       <c r="A117" s="2">
         <v>44</v>
       </c>
       <c r="B117" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="C117" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="C117" s="4" t="s">
-        <v>176</v>
-      </c>
       <c r="D117" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E117" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E117" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="F117" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G117" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H117" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="I117" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
       <c r="A118" s="2">
         <v>44</v>
       </c>
       <c r="B118" s="16" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D118" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E118" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E118" s="2" t="s">
+      <c r="F118" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F118" s="5" t="s">
+      <c r="G118" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G118" s="4" t="s">
-        <v>14</v>
-      </c>
       <c r="H118" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="I118" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
       <c r="A119" s="2">
         <v>44</v>
       </c>
       <c r="B119" s="16" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D119" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E119" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E119" s="2" t="s">
+      <c r="F119" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F119" s="5" t="s">
+      <c r="G119" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G119" s="4" t="s">
-        <v>14</v>
-      </c>
       <c r="H119" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="I119" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
       <c r="A120" s="2">
         <v>44</v>
       </c>
       <c r="B120" s="16" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D120" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E120" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E120" s="2" t="s">
+      <c r="F120" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F120" s="5" t="s">
+      <c r="G120" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G120" s="4" t="s">
-        <v>14</v>
-      </c>
       <c r="H120" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="I120" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="121" ht="14.25" spans="1:9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="121" ht="14.25" spans="1:8">
       <c r="A121" s="2">
         <v>44</v>
       </c>
       <c r="B121" s="16" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C121" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D121" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E121" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E121" s="15" t="s">
-        <v>12</v>
-      </c>
       <c r="F121" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G121" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H121" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="I121" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="122" ht="14.25" spans="1:9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="122" ht="14.25" spans="1:8">
       <c r="A122" s="15">
         <v>45</v>
       </c>
       <c r="B122" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="C122" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="C122" s="12" t="s">
-        <v>181</v>
-      </c>
       <c r="D122" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E122" s="15">
         <v>3</v>
       </c>
       <c r="F122" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G122" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H122" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="I122" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="123" ht="14.25" spans="1:9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="123" ht="14.25" spans="1:8">
       <c r="A123" s="15">
         <v>46</v>
       </c>
       <c r="B123" s="37" t="s">
+        <v>181</v>
+      </c>
+      <c r="C123" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="C123" s="12" t="s">
-        <v>183</v>
-      </c>
       <c r="D123" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E123" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E123" s="15" t="s">
-        <v>12</v>
-      </c>
       <c r="F123" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G123" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H123" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="I123" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
